--- a/data/wofost81/output/PCSE_Test4_output_endtime.xlsx
+++ b/data/wofost81/output/PCSE_Test4_output_endtime.xlsx
@@ -9561,7 +9561,7 @@
         <v>10.97951668438772</v>
       </c>
       <c r="N71" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>0.001729575760488852</v>
@@ -9686,11 +9686,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[0.20292458 0.18683075 0.2095432  0.17558639]</t>
+          <t>[0.14692458 0.18683075 0.2095432  0.17558639]</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8350991144639853</v>
       </c>
       <c r="M72" t="n">
         <v>11.14420129269852</v>
@@ -9699,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0.02318684046775415</v>
+        <v>0.001371075000432357</v>
       </c>
       <c r="P72" t="n">
-        <v>0.3548303802112763</v>
+        <v>0.2963185362993561</v>
       </c>
       <c r="Q72" t="n">
         <v>0.4282319392789419</v>
@@ -9711,10 +9711,10 @@
         <v>5.129060061107777</v>
       </c>
       <c r="S72" t="n">
-        <v>74.52496500256817</v>
+        <v>70.75585147612904</v>
       </c>
       <c r="T72" t="n">
-        <v>8.300036458986177</v>
+        <v>6.999414003060276</v>
       </c>
       <c r="U72" t="n">
         <v>14.32274675983595</v>
@@ -9730,18 +9730,18 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>[ 5.07311459  2.80246128  4.19086395 10.53518311]</t>
+          <t>[ 3.67311459  2.80246128  4.19086395 10.53518311]</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>[np.float64(0.006091288555997117) np.float64(6.2291443349199315e-06)
+          <t>[np.float64(0.006076788025829092) np.float64(6.2291443349199315e-06)
  np.float64(4.286300143376044e-06) np.float64(5.490432941812741e-10)]</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>[np.float64(0.006057715816143143) np.float64(5.557069787642483e-07)
+          <t>[np.float64(0.005998993075626877) np.float64(5.557069787642483e-07)
  np.float64(1.0399557367690896e-05) np.float64(1.016842702111072e-08)]</t>
         </is>
       </c>
@@ -9752,13 +9752,13 @@
         <v>111.3666831302562</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.006091288555997117</v>
+        <v>0.006076788025829092</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.006057715816143143</v>
+        <v>0.005998993075626877</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.2029245837447034</v>
+        <v>0.1469245837447034</v>
       </c>
       <c r="AG72" t="n">
         <v>6.229144334919931e-06</v>
@@ -9799,84 +9799,84 @@
         <v>1.088119047619048</v>
       </c>
       <c r="D73" t="n">
-        <v>3.863380211374276</v>
+        <v>3.83240723426843</v>
       </c>
       <c r="E73" t="n">
-        <v>3489.118084173699</v>
+        <v>3441.638691417875</v>
       </c>
       <c r="F73" t="n">
-        <v>1195.271389315111</v>
+        <v>1167.729950131536</v>
       </c>
       <c r="G73" t="n">
-        <v>1674.453302433569</v>
+        <v>1661.471812125465</v>
       </c>
       <c r="H73" t="n">
-        <v>590.6613126933095</v>
+        <v>583.4439928097313</v>
       </c>
       <c r="I73" t="n">
-        <v>791.5201856567348</v>
+        <v>782.7748624409999</v>
       </c>
       <c r="J73" t="n">
         <v>49.80000000000003</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[0.19479142 0.18126771 0.2065852  0.17505168]</t>
+          <t>[0.14203459 0.1812176  0.2065852  0.17505168]</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0.7830760703077554</v>
       </c>
       <c r="M73" t="n">
-        <v>11.38195810472699</v>
+        <v>11.3157591969581</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0.009985409317691422</v>
+        <v>0.001448884229113585</v>
       </c>
       <c r="P73" t="n">
-        <v>0.4196765873792715</v>
+        <v>0.3281877986019486</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4514187797466961</v>
+        <v>0.4296030142793743</v>
       </c>
       <c r="R73" t="n">
-        <v>5.483890441319054</v>
+        <v>5.425378597407134</v>
       </c>
       <c r="S73" t="n">
-        <v>75.90128108518408</v>
+        <v>70.47366195761339</v>
       </c>
       <c r="T73" t="n">
-        <v>8.522684805941253</v>
+        <v>5.73213225397682</v>
       </c>
       <c r="U73" t="n">
-        <v>16.37521803361702</v>
+        <v>15.99790031680205</v>
       </c>
       <c r="V73" t="n">
-        <v>73.99996526212797</v>
+        <v>74.10438621294486</v>
       </c>
       <c r="W73" t="n">
-        <v>12.9959920535782</v>
+        <v>13.01076631084791</v>
       </c>
       <c r="X73" t="n">
-        <v>17.40983435043262</v>
+        <v>17.45583283869249</v>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>[ 4.86978553  2.71901564  4.131704   10.50310054]</t>
+          <t>[ 3.55086483  2.71826395  4.131704   10.50310054]</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>[np.float64(0.0049208762718116845) np.float64(6.508861309431684e-06)
+          <t>[np.float64(0.005248384352811407) np.float64(6.5085269719223496e-06)
  np.float64(4.361489166738725e-06) np.float64(5.099489260594071e-10)]</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>[np.float64(0.006495652369590868) np.float64(1.121138483523345e-06)
+          <t>[np.float64(0.006140678238818847) np.float64(1.1208572861148261e-06)
  np.float64(1.0774785563081121e-05) np.float64(1.0176167774438994e-08)]</t>
         </is>
       </c>
@@ -9884,25 +9884,25 @@
         <v>9.464398248519224e-06</v>
       </c>
       <c r="AC73" t="n">
-        <v>118.5666831302562</v>
+        <v>118.3660971333164</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.004920876271811685</v>
+        <v>0.005248384352811407</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.006495652369590868</v>
+        <v>0.006140678238818847</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.1947914213865743</v>
+        <v>0.1420345930328368</v>
       </c>
       <c r="AG73" t="n">
-        <v>6.508861309431684e-06</v>
+        <v>6.50852697192235e-06</v>
       </c>
       <c r="AH73" t="n">
-        <v>1.121138483523345e-06</v>
+        <v>1.120857286114826e-06</v>
       </c>
       <c r="AI73" t="n">
-        <v>0.1812677090007363</v>
+        <v>0.1812175968822483</v>
       </c>
       <c r="AJ73" t="n">
         <v>4.361489166738725e-06</v>
@@ -9934,119 +9934,119 @@
         <v>1.095285714285715</v>
       </c>
       <c r="D74" t="n">
-        <v>4.009957252572428</v>
+        <v>3.939228504988383</v>
       </c>
       <c r="E74" t="n">
-        <v>3773.858200287601</v>
+        <v>3658.646479707322</v>
       </c>
       <c r="F74" t="n">
-        <v>1367.35611234652</v>
+        <v>1298.880157039894</v>
       </c>
       <c r="G74" t="n">
-        <v>1732.489728076054</v>
+        <v>1702.827061223053</v>
       </c>
       <c r="H74" t="n">
-        <v>634.8665377673353</v>
+        <v>617.1339352564578</v>
       </c>
       <c r="I74" t="n">
-        <v>842.1807765777962</v>
+        <v>821.3846057369472</v>
       </c>
       <c r="J74" t="n">
         <v>51.00000000000004</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[0.18606425 0.17430666 0.2028685  0.17450613]</t>
+          <t>[0.13728319 0.17429246 0.20287311 0.17450613]</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.9394333361307503</v>
+        <v>0.7524176224394969</v>
       </c>
       <c r="M74" t="n">
-        <v>11.58277421983885</v>
+        <v>11.45706910459713</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0.007573336513255625</v>
+        <v>0.001465376229721912</v>
       </c>
       <c r="P74" t="n">
-        <v>0.4396513595586857</v>
+        <v>0.3511314234976722</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.4614041890643875</v>
+        <v>0.4310518985084879</v>
       </c>
       <c r="R74" t="n">
-        <v>5.903567028698325</v>
+        <v>5.753566396009083</v>
       </c>
       <c r="S74" t="n">
-        <v>75.9030476353679</v>
+        <v>70.02789395630646</v>
       </c>
       <c r="T74" t="n">
-        <v>8.117949423746486</v>
+        <v>5.370201825265559</v>
       </c>
       <c r="U74" t="n">
-        <v>18.73277873914733</v>
+        <v>17.79465815144655</v>
       </c>
       <c r="V74" t="n">
-        <v>76.37446644410534</v>
+        <v>75.9466947117517</v>
       </c>
       <c r="W74" t="n">
-        <v>13.92094143508647</v>
+        <v>13.76136820179239</v>
       </c>
       <c r="X74" t="n">
-        <v>18.49260327581718</v>
+        <v>18.31604642833116</v>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>[ 4.65160617  2.6145999   4.05736998 10.47036766]</t>
+          <t>[ 3.43207985  2.61438689  4.05746224 10.47036766]</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>[np.float64(0.003963019360586531) np.float64(6.799227454931399e-06)
- np.float64(4.457785856412352e-06) np.float64(4.810348360997584e-10)]</t>
+          <t>[np.float64(0.004597883459232002) np.float64(6.799424550327912e-06)
+ np.float64(4.457781263476367e-06) np.float64(4.810348360997584e-10)]</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>[np.float64(0.006736839374750413) np.float64(1.5601728846939936e-06)
- np.float64(1.1063602839420438e-05) np.float64(1.0173018861721864e-08)]</t>
+          <t>[np.float64(0.006228118472211652) np.float64(1.5597718683632021e-06)
+ np.float64(1.1063546118919781e-05) np.float64(1.0173018861721864e-08)]</t>
         </is>
       </c>
       <c r="AB74" t="n">
         <v>9.785028275287023e-06</v>
       </c>
       <c r="AC74" t="n">
-        <v>125.7666831302562</v>
+        <v>124.0982293872933</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.003963019360586531</v>
+        <v>0.004597883459232002</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.006736839374750413</v>
+        <v>0.006228118472211652</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.1860642467443876</v>
+        <v>0.1372831941120056</v>
       </c>
       <c r="AG74" t="n">
-        <v>6.799227454931399e-06</v>
+        <v>6.799424550327912e-06</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.560172884693994e-06</v>
+        <v>1.559771868363202e-06</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.1743066603322575</v>
+        <v>0.1742924594050344</v>
       </c>
       <c r="AJ74" t="n">
-        <v>4.457785856412352e-06</v>
+        <v>4.457781263476367e-06</v>
       </c>
       <c r="AK74" t="n">
-        <v>1.106360283942044e-05</v>
+        <v>1.106354611891978e-05</v>
       </c>
       <c r="AL74" t="n">
-        <v>0.2028684992039203</v>
+        <v>0.2028731118520723</v>
       </c>
       <c r="AM74" t="n">
         <v>4.810348360997584e-10</v>
@@ -10069,128 +10069,128 @@
         <v>1.102452380952381</v>
       </c>
       <c r="D75" t="n">
-        <v>4.12731472489883</v>
+        <v>4.026650572101299</v>
       </c>
       <c r="E75" t="n">
-        <v>4043.422916202099</v>
+        <v>3868.823145865603</v>
       </c>
       <c r="F75" t="n">
-        <v>1536.065115263865</v>
+        <v>1430.420724816955</v>
       </c>
       <c r="G75" t="n">
-        <v>1777.568008997651</v>
+        <v>1735.583526989087</v>
       </c>
       <c r="H75" t="n">
-        <v>677.4885702779304</v>
+        <v>650.3658686998842</v>
       </c>
       <c r="I75" t="n">
-        <v>888.6591815828733</v>
+        <v>857.6233107142705</v>
       </c>
       <c r="J75" t="n">
         <v>52.20000000000004</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[0.17778755 0.16653408 0.19833463 0.17395544]</t>
+          <t>[0.1327735  0.1665318  0.19835344 0.17395528]</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0.9152779740939582</v>
+        <v>0.7443058916100985</v>
       </c>
       <c r="M75" t="n">
-        <v>11.77450651300836</v>
+        <v>11.592238714723</v>
       </c>
       <c r="N75" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0.005704695799677252</v>
+        <v>0.001330034070643221</v>
       </c>
       <c r="P75" t="n">
-        <v>0.420624723377289</v>
+        <v>0.3407814612728292</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4689775255776432</v>
+        <v>0.4325172747382098</v>
       </c>
       <c r="R75" t="n">
-        <v>6.343218388257011</v>
+        <v>6.104697819506755</v>
       </c>
       <c r="S75" t="n">
-        <v>75.38421068391902</v>
+        <v>69.54360552537032</v>
       </c>
       <c r="T75" t="n">
-        <v>7.109941044861706</v>
+        <v>4.968298731476217</v>
       </c>
       <c r="U75" t="n">
-        <v>21.04409207911495</v>
+        <v>19.5967639299923</v>
       </c>
       <c r="V75" t="n">
-        <v>78.58641424913439</v>
+        <v>77.40415839517625</v>
       </c>
       <c r="W75" t="n">
-        <v>14.917469492182</v>
+        <v>14.50117038298136</v>
       </c>
       <c r="X75" t="n">
-        <v>19.59287607677729</v>
+        <v>19.12278471309955</v>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>[ 4.44468879  2.49801125  3.96669267 10.43732631]</t>
+          <t>[ 3.3193374   2.49797705  3.96706883 10.43731657]</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>[np.float64(0.0030934570268725935) np.float64(7.1228779549082144e-06)
- np.float64(4.562260533757611e-06) np.float64(4.540288089517626e-10)]</t>
+          <t>[np.float64(0.004002602073823098) np.float64(7.123057348304261e-06)
+ np.float64(4.5622340246375e-06) np.float64(4.540287359801763e-10)]</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>[np.float64(0.006892147028465976) np.float64(1.9644678677853994e-06)
- np.float64(1.1346522219213376e-05) np.float64(1.0167589879643552e-08)]</t>
+          <t>[np.float64(0.006295807892667561) np.float64(1.9638467493570877e-06)
+ np.float64(1.1346453588755744e-05) np.float64(1.0167580392125867e-08)]</t>
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>1.01093783675501e-05</v>
+        <v>1.010947397244281e-05</v>
       </c>
       <c r="AC75" t="n">
-        <v>132.9666831302562</v>
+        <v>129.4684312125588</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.003093457026872594</v>
+        <v>0.004002602073823098</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.006892147028465976</v>
+        <v>0.006295807892667561</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.1777875515943514</v>
+        <v>0.1327734958179456</v>
       </c>
       <c r="AG75" t="n">
-        <v>7.122877954908214e-06</v>
+        <v>7.123057348304261e-06</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.964467867785399e-06</v>
+        <v>1.963846749357088e-06</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.166534083301602</v>
+        <v>0.1665318030259999</v>
       </c>
       <c r="AJ75" t="n">
-        <v>4.562260533757611e-06</v>
+        <v>4.5622340246375e-06</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.134652221921338e-05</v>
+        <v>1.134645358875574e-05</v>
       </c>
       <c r="AL75" t="n">
-        <v>0.1983346334723029</v>
+        <v>0.1983534413396186</v>
       </c>
       <c r="AM75" t="n">
-        <v>4.540288089517626e-10</v>
+        <v>4.540287359801763e-10</v>
       </c>
       <c r="AN75" t="n">
-        <v>1.016758987964355e-08</v>
+        <v>1.016758039212587e-08</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.1739554384968291</v>
+        <v>0.1739552761766216</v>
       </c>
     </row>
     <row r="76">
@@ -10204,128 +10204,128 @@
         <v>1.110190476190477</v>
       </c>
       <c r="D76" t="n">
-        <v>4.21861152559104</v>
+        <v>4.096598824556165</v>
       </c>
       <c r="E76" t="n">
-        <v>4297.245066416572</v>
+        <v>4069.325122665051</v>
       </c>
       <c r="F76" t="n">
-        <v>1700.005216056676</v>
+        <v>1559.922087317765</v>
       </c>
       <c r="G76" t="n">
-        <v>1811.634080053346</v>
+        <v>1761.249997433387</v>
       </c>
       <c r="H76" t="n">
-        <v>717.8511268696548</v>
+        <v>682.2495020962689</v>
       </c>
       <c r="I76" t="n">
-        <v>931.0405810066411</v>
+        <v>891.1016905830575</v>
       </c>
       <c r="J76" t="n">
         <v>53.40000000000004</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[0.23437509 0.1589867  0.19363022 0.17339346]</t>
+          <t>[0.12870042 0.1590083  0.19366958 0.17339269]</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.9928778666501711</v>
+        <v>0.7269568666722046</v>
       </c>
       <c r="M76" t="n">
-        <v>11.97535817043123</v>
+        <v>11.73410584085944</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01958769286715531</v>
+        <v>0.001235163010242385</v>
       </c>
       <c r="P76" t="n">
-        <v>0.4610062148560354</v>
+        <v>0.336108455156023</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.4746822213773204</v>
+        <v>0.433847308808853</v>
       </c>
       <c r="R76" t="n">
-        <v>6.7638431116343</v>
+        <v>6.445479280779584</v>
       </c>
       <c r="S76" t="n">
-        <v>138.891541745752</v>
+        <v>127.0004996586843</v>
       </c>
       <c r="T76" t="n">
-        <v>6.980553636878677</v>
+        <v>4.904523901731861</v>
       </c>
       <c r="U76" t="n">
-        <v>23.29007145997647</v>
+        <v>21.37093259625339</v>
       </c>
       <c r="V76" t="n">
-        <v>80.59979332923029</v>
+        <v>78.54451384831599</v>
       </c>
       <c r="W76" t="n">
-        <v>15.96778646177437</v>
+        <v>15.21038574901283</v>
       </c>
       <c r="X76" t="n">
-        <v>20.70994476193088</v>
+        <v>19.86747341082729</v>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>[ 5.85937717  2.38480046  3.87260437 10.4036076 ]</t>
+          <t>[ 3.21751058  2.38512452  3.87339167 10.40356158]</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>[np.float64(0.007370132909238789) np.float64(7.502937895177274e-06)
- np.float64(4.6721308626991495e-06) np.float64(4.249550301550352e-10)]</t>
+          <t>[np.float64(0.008454584369251759) np.float64(7.503049645642394e-06)
+ np.float64(4.672003004856527e-06) np.float64(4.2495479502093426e-10)]</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>[np.float64(0.01200333842725793) np.float64(2.3723262485830687e-06)
- np.float64(1.1672546844231482e-05) np.float64(1.0163486600811424e-08)]</t>
+          <t>[np.float64(0.011354858868623894) np.float64(2.371617482176e-06)
+ np.float64(1.1672507695925439e-05) np.float64(1.0163441576690361e-08)]</t>
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>1.044114894383866e-05</v>
+        <v>1.044160153639028e-05</v>
       </c>
       <c r="AC76" t="n">
-        <v>140.0766241751179</v>
+        <v>134.436729944035</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.007370132909238789</v>
+        <v>0.008454584369251759</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.01200333842725793</v>
+        <v>0.01135485886862389</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.2343750868721264</v>
+        <v>0.1287004231897093</v>
       </c>
       <c r="AG76" t="n">
-        <v>7.502937895177274e-06</v>
+        <v>7.503049645642394e-06</v>
       </c>
       <c r="AH76" t="n">
-        <v>2.372326248583069e-06</v>
+        <v>2.371617482176e-06</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.1589866974363056</v>
+        <v>0.1590083012737589</v>
       </c>
       <c r="AJ76" t="n">
-        <v>4.67213086269915e-06</v>
+        <v>4.672003004856527e-06</v>
       </c>
       <c r="AK76" t="n">
-        <v>1.167254684423148e-05</v>
+        <v>1.167250769592544e-05</v>
       </c>
       <c r="AL76" t="n">
-        <v>0.1936302183599371</v>
+        <v>0.1936695833043836</v>
       </c>
       <c r="AM76" t="n">
-        <v>4.249550301550352e-10</v>
+        <v>4.249547950209343e-10</v>
       </c>
       <c r="AN76" t="n">
-        <v>1.016348660081142e-08</v>
+        <v>1.016344157669036e-08</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.1733934599819194</v>
+        <v>0.1733926929658008</v>
       </c>
     </row>
     <row r="77">
@@ -10339,128 +10339,128 @@
         <v>1.117666666666667</v>
       </c>
       <c r="D77" t="n">
-        <v>4.311212330481823</v>
+        <v>4.156973708138398</v>
       </c>
       <c r="E77" t="n">
-        <v>4586.48988918778</v>
+        <v>4272.547993017195</v>
       </c>
       <c r="F77" t="n">
-        <v>1892.196004581454</v>
+        <v>1694.954975115179</v>
       </c>
       <c r="G77" t="n">
-        <v>1846.287790703601</v>
+        <v>1782.94830825937</v>
       </c>
       <c r="H77" t="n">
-        <v>762.9512815211806</v>
+        <v>713.9367862239384</v>
       </c>
       <c r="I77" t="n">
-        <v>977.6516991567225</v>
+        <v>923.8505748328378</v>
       </c>
       <c r="J77" t="n">
         <v>54.60000000000004</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[0.22489658 0.15169319 0.18864934 0.17281661]</t>
+          <t>[0.12497124 0.15165243 0.18869119 0.17282256]</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>0.9606820603545896</v>
+        <v>0.6753130818791773</v>
       </c>
       <c r="M77" t="n">
-        <v>12.1903029498607</v>
+        <v>11.86353009656798</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008527697651346092</v>
+        <v>0.001321258585066846</v>
       </c>
       <c r="P77" t="n">
-        <v>0.4990493438861687</v>
+        <v>0.3490419471843577</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.4942699142444757</v>
+        <v>0.4350824718190954</v>
       </c>
       <c r="R77" t="n">
-        <v>7.224849326490335</v>
+        <v>6.781587735935608</v>
       </c>
       <c r="S77" t="n">
-        <v>141.9061177118463</v>
+        <v>126.9603440124342</v>
       </c>
       <c r="T77" t="n">
-        <v>6.485298319288277</v>
+        <v>4.314204254826121</v>
       </c>
       <c r="U77" t="n">
-        <v>25.92308526276592</v>
+        <v>23.22088315907795</v>
       </c>
       <c r="V77" t="n">
-        <v>82.13940743691275</v>
+        <v>79.50680916525164</v>
       </c>
       <c r="W77" t="n">
-        <v>16.97011592264041</v>
+        <v>15.91462054956737</v>
       </c>
       <c r="X77" t="n">
-        <v>21.74585466704589</v>
+        <v>20.59530176857188</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>[ 5.62241443  2.27539788  3.77298689 10.36899649]</t>
+          <t>[ 3.12428094  2.27478641  3.77382377 10.3693536 ]</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>[np.float64(0.005933318185797384) np.float64(7.913179462365245e-06)
- np.float64(4.800530842826041e-06) np.float64(3.996382226277918e-10)]</t>
+          <t>[np.float64(0.007850809250400112) np.float64(7.91231489262498e-06)
+ np.float64(4.8002003907814905e-06) np.float64(3.9964102747693506e-10)]</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>[np.float64(0.012714722130915797) np.float64(2.7166092095051165e-06)
- np.float64(1.1965294626981818e-05) np.float64(1.0154679165375733e-08)]</t>
+          <t>[np.float64(0.011475068790146046) np.float64(2.7145074064041673e-06)
+ np.float64(1.1965335197844397e-05) np.float64(1.0155028562718794e-08)]</t>
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>1.078239137346801e-05</v>
+        <v>1.077886935154595e-05</v>
       </c>
       <c r="AC77" t="n">
-        <v>147.0571778119966</v>
+        <v>139.3412538457669</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.005933318185797384</v>
+        <v>0.007850809250400112</v>
       </c>
       <c r="AE77" t="n">
-        <v>0.0127147221309158</v>
+        <v>0.01147506879014605</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.2248965770080855</v>
+        <v>0.1249712374977627</v>
       </c>
       <c r="AG77" t="n">
-        <v>7.913179462365245e-06</v>
+        <v>7.912314892624981e-06</v>
       </c>
       <c r="AH77" t="n">
-        <v>2.716609209505116e-06</v>
+        <v>2.714507406404167e-06</v>
       </c>
       <c r="AI77" t="n">
-        <v>0.1516931919985254</v>
+        <v>0.1516524275217121</v>
       </c>
       <c r="AJ77" t="n">
-        <v>4.800530842826041e-06</v>
+        <v>4.800200390781491e-06</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.196529462698182e-05</v>
+        <v>1.19653351978444e-05</v>
       </c>
       <c r="AL77" t="n">
-        <v>0.1886493446035432</v>
+        <v>0.1886911884812916</v>
       </c>
       <c r="AM77" t="n">
-        <v>3.996382226277918e-10</v>
+        <v>3.996410274769351e-10</v>
       </c>
       <c r="AN77" t="n">
-        <v>1.015467916537573e-08</v>
+        <v>1.015502856271879e-08</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.1728166082414596</v>
+        <v>0.1728225600803832</v>
       </c>
     </row>
     <row r="78">
@@ -10474,128 +10474,128 @@
         <v>1.125690476190476</v>
       </c>
       <c r="D78" t="n">
-        <v>4.383554472920608</v>
+        <v>4.196630847787523</v>
       </c>
       <c r="E78" t="n">
-        <v>4862.311247018486</v>
+        <v>4456.032177852002</v>
       </c>
       <c r="F78" t="n">
-        <v>2080.416499165128</v>
+        <v>1820.164582846451</v>
       </c>
       <c r="G78" t="n">
-        <v>1872.472457805733</v>
+        <v>1795.795037620844</v>
       </c>
       <c r="H78" t="n">
-        <v>805.1335611787565</v>
+        <v>741.9976342246748</v>
       </c>
       <c r="I78" t="n">
-        <v>1020.562490327902</v>
+        <v>952.3960493406281</v>
       </c>
       <c r="J78" t="n">
         <v>55.80000000000005</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[0.21504129 0.14457591 0.18261386 0.17225451]</t>
+          <t>[0.12138381 0.14452536 0.18269028 0.17226001]</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.8958474114291655</v>
+        <v>0.6159007215355651</v>
       </c>
       <c r="M78" t="n">
-        <v>12.42510795977243</v>
+        <v>11.99766481382114</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00760639873420589</v>
+        <v>0.001563797940397604</v>
       </c>
       <c r="P78" t="n">
-        <v>0.5629213863481262</v>
+        <v>0.3847527593128998</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.5027976118958218</v>
+        <v>0.4364037304041622</v>
       </c>
       <c r="R78" t="n">
-        <v>7.723898670376504</v>
+        <v>7.130629683119965</v>
       </c>
       <c r="S78" t="n">
-        <v>144.4077109612988</v>
+        <v>127.036727788155</v>
       </c>
       <c r="T78" t="n">
-        <v>5.690822147994371</v>
+        <v>3.620366790132445</v>
       </c>
       <c r="U78" t="n">
-        <v>28.50170603856225</v>
+        <v>24.93625478499638</v>
       </c>
       <c r="V78" t="n">
-        <v>83.30082565961261</v>
+        <v>80.0742066057975</v>
       </c>
       <c r="W78" t="n">
-        <v>17.9068085943366</v>
+        <v>16.53773506346372</v>
       </c>
       <c r="X78" t="n">
-        <v>22.69872454399458</v>
+        <v>21.22917781791278</v>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>[ 5.37603234  2.16863866  3.6522772  10.33527045]</t>
+          <t>[ 3.03459513  2.16788033  3.65380561 10.33560044]</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>[np.float64(0.00469156549916764) np.float64(8.388574661426326e-06)
- np.float64(4.947073100332998e-06) np.float64(3.729876432184152e-10)]</t>
+          <t>[np.float64(0.007309145196972757) np.float64(8.387547170306758e-06)
+ np.float64(4.946505013818561e-06) np.float64(3.729870832966764e-10)]</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>[np.float64(0.013308170263355247) np.float64(3.055824953853612e-06)
- np.float64(1.2289163276510036e-05) np.float64(1.0148006839006921e-08)]</t>
+          <t>[np.float64(0.011592062672457737) np.float64(3.0523860695319756e-06)
+ np.float64(1.2289330199005366e-05) np.float64(1.0148332801717963e-08)]</t>
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>1.111562043124989e-05</v>
+        <v>1.111236640335686e-05</v>
       </c>
       <c r="AC78" t="n">
-        <v>153.5424761312848</v>
+        <v>143.655458100593</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.00469156549916764</v>
+        <v>0.007309145196972757</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.01330817026335525</v>
+        <v>0.01159206267245774</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.2150412934443751</v>
+        <v>0.1213838053917717</v>
       </c>
       <c r="AG78" t="n">
-        <v>8.388574661426326e-06</v>
+        <v>8.387547170306758e-06</v>
       </c>
       <c r="AH78" t="n">
-        <v>3.055824953853612e-06</v>
+        <v>3.052386069531976e-06</v>
       </c>
       <c r="AI78" t="n">
-        <v>0.1445759109357826</v>
+        <v>0.1445253554072213</v>
       </c>
       <c r="AJ78" t="n">
-        <v>4.947073100332998e-06</v>
+        <v>4.946505013818561e-06</v>
       </c>
       <c r="AK78" t="n">
-        <v>1.228916327651004e-05</v>
+        <v>1.228933019900537e-05</v>
       </c>
       <c r="AL78" t="n">
-        <v>0.1826138599793886</v>
+        <v>0.1826902805441951</v>
       </c>
       <c r="AM78" t="n">
-        <v>3.729876432184152e-10</v>
+        <v>3.729870832966764e-10</v>
       </c>
       <c r="AN78" t="n">
-        <v>1.014800683900692e-08</v>
+        <v>1.014833280171796e-08</v>
       </c>
       <c r="AO78" t="n">
-        <v>0.1722545075077843</v>
+        <v>0.1722600073693772</v>
       </c>
     </row>
     <row r="79">
@@ -10609,128 +10609,128 @@
         <v>1.134809523809524</v>
       </c>
       <c r="D79" t="n">
-        <v>4.431901227491331</v>
+        <v>4.213069779624021</v>
       </c>
       <c r="E79" t="n">
-        <v>5111.372839266491</v>
+        <v>4614.479286867695</v>
       </c>
       <c r="F79" t="n">
-        <v>2255.172344377314</v>
+        <v>1931.340128652376</v>
       </c>
       <c r="G79" t="n">
-        <v>1888.711131136085</v>
+        <v>1798.650388714142</v>
       </c>
       <c r="H79" t="n">
-        <v>842.4240115761935</v>
+        <v>765.7209389945388</v>
       </c>
       <c r="I79" t="n">
-        <v>1057.835185005629</v>
+        <v>976.108058340513</v>
       </c>
       <c r="J79" t="n">
         <v>57.00000000000005</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[0.20413866 0.13748985 0.17471784 0.171692  ]</t>
+          <t>[0.11780671 0.13745224 0.17484034 0.17169678]</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0.841045433161169</v>
+        <v>0.5872294428920858</v>
       </c>
       <c r="M79" t="n">
-        <v>12.70535752240481</v>
+        <v>12.14944062833484</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.006156219657383405</v>
+        <v>0.001527836921565016</v>
       </c>
       <c r="P79" t="n">
-        <v>0.5238436712700358</v>
+        <v>0.3633178433466664</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.5104040106300277</v>
+        <v>0.4379675283445599</v>
       </c>
       <c r="R79" t="n">
-        <v>8.286820056724629</v>
+        <v>7.515382442432864</v>
       </c>
       <c r="S79" t="n">
-        <v>146.4913303740133</v>
+        <v>127.3006583764479</v>
       </c>
       <c r="T79" t="n">
-        <v>5.103763058450537</v>
+        <v>3.272836342213673</v>
       </c>
       <c r="U79" t="n">
-        <v>30.8958611179692</v>
+        <v>26.45935976253756</v>
       </c>
       <c r="V79" t="n">
-        <v>84.01896042446624</v>
+        <v>80.19638592708236</v>
       </c>
       <c r="W79" t="n">
-        <v>18.7341260921094</v>
+        <v>17.06405493710232</v>
       </c>
       <c r="X79" t="n">
-        <v>23.52564811738606</v>
+        <v>21.75524708615362</v>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>[ 5.10346654  2.0623478   3.49435675 10.30151977]</t>
+          <t>[ 2.94516783  2.06178362  3.49680684 10.30180667]</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>[np.float64(0.0036359577611007267) np.float64(8.99286357497927e-06)
- np.float64(5.149690427638561e-06) np.float64(3.433128461956705e-10)]</t>
+          <t>[np.float64(0.006831881660681137) np.float64(8.991883801988878e-06)
+ np.float64(5.148576485856655e-06) np.float64(3.433089534941874e-10)]</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>[np.float64(0.013800406501031608) np.float64(3.4189267425301344e-06)
- np.float64(1.2653821173046102e-05) np.float64(1.014425456155352e-08)]</t>
+          <t>[np.float64(0.01171436570670598) np.float64(3.4142330303896542e-06)
+ np.float64(1.2654356036349033e-05) np.float64(1.0144541163841643e-08)]</t>
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>1.144989117601135e-05</v>
+        <v>1.144706408014495e-05</v>
       </c>
       <c r="AC79" t="n">
-        <v>159.2332982792792</v>
+        <v>147.2758248907254</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.003635957761100727</v>
+        <v>0.006831881660681137</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.01380040650103161</v>
+        <v>0.01171436570670598</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.2041386617239667</v>
+        <v>0.1178067132889379</v>
       </c>
       <c r="AG79" t="n">
-        <v>8.99286357497927e-06</v>
+        <v>8.991883801988878e-06</v>
       </c>
       <c r="AH79" t="n">
-        <v>3.418926742530134e-06</v>
+        <v>3.414233030389654e-06</v>
       </c>
       <c r="AI79" t="n">
-        <v>0.1374898534960913</v>
+        <v>0.1374522414962193</v>
       </c>
       <c r="AJ79" t="n">
-        <v>5.149690427638561e-06</v>
+        <v>5.148576485856655e-06</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.26538211730461e-05</v>
+        <v>1.265435603634903e-05</v>
       </c>
       <c r="AL79" t="n">
-        <v>0.174717837271563</v>
+        <v>0.1748403418638094</v>
       </c>
       <c r="AM79" t="n">
-        <v>3.433128461956705e-10</v>
+        <v>3.433089534941874e-10</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.014425456155352e-08</v>
+        <v>1.014454116384164e-08</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.1716919962357803</v>
+        <v>0.1716967778292154</v>
       </c>
     </row>
     <row r="80">
@@ -10744,128 +10744,128 @@
         <v>1.144428571428572</v>
       </c>
       <c r="D80" t="n">
-        <v>4.460915122499336</v>
+        <v>4.21545674095653</v>
       </c>
       <c r="E80" t="n">
-        <v>5342.328195222713</v>
+        <v>4762.581593684403</v>
       </c>
       <c r="F80" t="n">
-        <v>2422.278442498326</v>
+        <v>2038.498494875985</v>
       </c>
       <c r="G80" t="n">
-        <v>1897.010445770422</v>
+        <v>1795.687210836963</v>
       </c>
       <c r="H80" t="n">
-        <v>876.1610901443511</v>
+        <v>787.3551597750594</v>
       </c>
       <c r="I80" t="n">
-        <v>1090.860732413236</v>
+        <v>997.2860030333319</v>
       </c>
       <c r="J80" t="n">
         <v>58.20000000000005</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[0.19435318 0.13103235 0.16697104 0.17113259]</t>
+          <t>[0.11457565 0.13101771 0.16714402 0.17113637]</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.7628494117288803</v>
+        <v>0.5401885432211372</v>
       </c>
       <c r="M80" t="n">
-        <v>13.00893217379004</v>
+        <v>12.30476588417461</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0.005536282184080614</v>
+        <v>0.001580959125023555</v>
       </c>
       <c r="P80" t="n">
-        <v>0.5048343479191911</v>
+        <v>0.3548439874962135</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.5165602302874112</v>
+        <v>0.4394953652661249</v>
       </c>
       <c r="R80" t="n">
-        <v>8.810663727994665</v>
+        <v>7.878700285779531</v>
       </c>
       <c r="S80" t="n">
-        <v>147.7031163843451</v>
+        <v>127.594312251844</v>
       </c>
       <c r="T80" t="n">
-        <v>4.102753987660415</v>
+        <v>2.594129892378359</v>
       </c>
       <c r="U80" t="n">
-        <v>33.18521466222706</v>
+        <v>27.927429379801</v>
       </c>
       <c r="V80" t="n">
-        <v>84.38337025674959</v>
+        <v>80.05922644106934</v>
       </c>
       <c r="W80" t="n">
-        <v>19.4818401611517</v>
+        <v>17.5435336571605</v>
       </c>
       <c r="X80" t="n">
-        <v>24.2575925382583</v>
+        <v>22.22461337014379</v>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>[ 4.85882955  1.96548529  3.33942076 10.26795538]</t>
+          <t>[ 2.8643913   1.96526567  3.34288035 10.26818196]</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>[np.float64(0.002801862749540827) np.float64(9.669381026362683e-06)
- np.float64(5.425973735278849e-06) np.float64(3.1456375949814145e-10)]</t>
+          <t>[np.float64(0.006398643855172154) np.float64(9.66818331075412e-06)
+ np.float64(5.423932185658652e-06) np.float64(3.145572133967255e-10)]</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>[np.float64(0.014134992819765269) np.float64(3.764169060432854e-06)
- np.float64(1.3000263988426536e-05) np.float64(1.0139683831987283e-08)]</t>
+          <t>[np.float64(0.0118275848962548) np.float64(3.7584417859185947e-06)
+ np.float64(1.3001544056161282e-05) np.float64(1.0139913196720863e-08)]</t>
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>1.178308933864901e-05</v>
+        <v>1.178086115232736e-05</v>
       </c>
       <c r="AC80" t="n">
-        <v>164.3370613377298</v>
+        <v>150.5486612329391</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.002801862749540827</v>
+        <v>0.006398643855172154</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.01413499281976527</v>
+        <v>0.0118275848962548</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.1943531818895554</v>
+        <v>0.1145756520975317</v>
       </c>
       <c r="AG80" t="n">
-        <v>9.669381026362683e-06</v>
+        <v>9.66818331075412e-06</v>
       </c>
       <c r="AH80" t="n">
-        <v>3.764169060432854e-06</v>
+        <v>3.758441785918595e-06</v>
       </c>
       <c r="AI80" t="n">
-        <v>0.1310323527163176</v>
+        <v>0.1310177113408359</v>
       </c>
       <c r="AJ80" t="n">
-        <v>5.425973735278849e-06</v>
+        <v>5.423932185658652e-06</v>
       </c>
       <c r="AK80" t="n">
-        <v>1.300026398842654e-05</v>
+        <v>1.300154405616128e-05</v>
       </c>
       <c r="AL80" t="n">
-        <v>0.1669710377908942</v>
+        <v>0.1671440174629009</v>
       </c>
       <c r="AM80" t="n">
-        <v>3.145637594981415e-10</v>
+        <v>3.145572133967255e-10</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.013968383198728e-08</v>
+        <v>1.013991319672086e-08</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.1711325896731611</v>
+        <v>0.1711363659936462</v>
       </c>
     </row>
     <row r="81">
@@ -10879,128 +10879,128 @@
         <v>1.155166666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>4.46704703741886</v>
+        <v>4.198019890403973</v>
       </c>
       <c r="E81" t="n">
-        <v>5534.847170727243</v>
+        <v>4884.3093966939</v>
       </c>
       <c r="F81" t="n">
-        <v>2566.018610152164</v>
+        <v>2129.383950540105</v>
       </c>
       <c r="G81" t="n">
-        <v>1895.982843900232</v>
+        <v>1784.446060087138</v>
       </c>
       <c r="H81" t="n">
-        <v>903.5427890032523</v>
+        <v>804.6683313002387</v>
       </c>
       <c r="I81" t="n">
-        <v>1117.054144552478</v>
+        <v>1013.84783287206</v>
       </c>
       <c r="J81" t="n">
         <v>59.40000000000006</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[0.18522633 0.12481153 0.15920412 0.17057345]</t>
+          <t>[0.11155105 0.12482312 0.15943067 0.17057597]</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>0.9074701200426012</v>
+        <v>0.6465476760858402</v>
       </c>
       <c r="M81" t="n">
-        <v>13.36474965373555</v>
+        <v>12.4807141570751</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.003344788829752855</v>
+        <v>0.001068641188113891</v>
       </c>
       <c r="P81" t="n">
-        <v>0.3841184914743812</v>
+        <v>0.2714499236256485</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.5220965124714918</v>
+        <v>0.4410763243911484</v>
       </c>
       <c r="R81" t="n">
-        <v>9.315498075913856</v>
+        <v>8.233544273275744</v>
       </c>
       <c r="S81" t="n">
-        <v>148.5031922635012</v>
+        <v>128.0023478956152</v>
       </c>
       <c r="T81" t="n">
-        <v>4.870418222029</v>
+        <v>3.205100333348601</v>
       </c>
       <c r="U81" t="n">
-        <v>35.15445495908465</v>
+        <v>29.17256012239944</v>
       </c>
       <c r="V81" t="n">
-        <v>84.33328588279382</v>
+        <v>79.55390486914297</v>
       </c>
       <c r="W81" t="n">
-        <v>20.08804163635328</v>
+        <v>17.92682872490134</v>
       </c>
       <c r="X81" t="n">
-        <v>24.83748661865097</v>
+        <v>22.59127453795554</v>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>[ 4.63065817  1.87217292  3.18408245 10.23440681]</t>
+          <t>[ 2.78877622  1.87234675  3.18861341 10.23455796]</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>[np.float64(0.00217373716115839) np.float64(1.0493929624394458e-05)
- np.float64(5.844316129804776e-06) np.float64(2.8582335421286414e-10)]</t>
+          <t>[np.float64(0.006037438840813337) np.float64(1.04924437044083e-05)
+ np.float64(5.840869185788697e-06) np.float64(2.8581492338734707e-10)]</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>[np.float64(0.014369557515586653) np.float64(4.103102423797305e-06)
- np.float64(1.3347967226491802e-05) np.float64(1.0135042611789868e-08)]</t>
+          <t>[np.float64(0.01193797499885342) np.float64(4.096515249844914e-06)
+ np.float64(1.3350376937784268e-05) np.float64(1.013519879029486e-08)]</t>
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>1.211690559347594e-05</v>
+        <v>1.211542811668118e-05</v>
       </c>
       <c r="AC81" t="n">
-        <v>168.4398153253902</v>
+        <v>153.1427911253175</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.00217373716115839</v>
+        <v>0.006037438840813337</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.01436955751558665</v>
+        <v>0.01193797499885342</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.1852263266893309</v>
+        <v>0.1115510487196938</v>
       </c>
       <c r="AG81" t="n">
-        <v>1.049392962439446e-05</v>
+        <v>1.04924437044083e-05</v>
       </c>
       <c r="AH81" t="n">
-        <v>4.103102423797305e-06</v>
+        <v>4.096515249844914e-06</v>
       </c>
       <c r="AI81" t="n">
-        <v>0.1248115278019022</v>
+        <v>0.1248231163809448</v>
       </c>
       <c r="AJ81" t="n">
-        <v>5.844316129804776e-06</v>
+        <v>5.840869185788697e-06</v>
       </c>
       <c r="AK81" t="n">
-        <v>1.33479672264918e-05</v>
+        <v>1.335037693778427e-05</v>
       </c>
       <c r="AL81" t="n">
-        <v>0.1592041225078128</v>
+        <v>0.1594306706129148</v>
       </c>
       <c r="AM81" t="n">
-        <v>2.858233542128641e-10</v>
+        <v>2.858149233873471e-10</v>
       </c>
       <c r="AN81" t="n">
-        <v>1.013504261178987e-08</v>
+        <v>1.013519879029486e-08</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.170573446827831</v>
+        <v>0.1705759659806928</v>
       </c>
     </row>
     <row r="82">
@@ -11014,128 +11014,128 @@
         <v>1.16502380952381</v>
       </c>
       <c r="D82" t="n">
-        <v>4.47473485521602</v>
+        <v>4.194811483950785</v>
       </c>
       <c r="E82" t="n">
-        <v>5771.539337231538</v>
+        <v>5040.070587454204</v>
       </c>
       <c r="F82" t="n">
-        <v>2748.10589384392</v>
+        <v>2249.211034592007</v>
       </c>
       <c r="G82" t="n">
-        <v>1895.907593723465</v>
+        <v>1780.295914805789</v>
       </c>
       <c r="H82" t="n">
-        <v>935.7013646923025</v>
+        <v>825.831085084872</v>
       </c>
       <c r="I82" t="n">
-        <v>1147.447486171303</v>
+        <v>1033.848930295988</v>
       </c>
       <c r="J82" t="n">
         <v>60</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[0.17842243 0.12011137 0.15353077 0.17001684]</t>
+          <t>[0.10929265 0.1201415  0.15381321 0.17001788]</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.8245957729460615</v>
+        <v>0.5960362494559454</v>
       </c>
       <c r="M82" t="n">
-        <v>13.65827051814673</v>
+        <v>12.6250126487422</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0.003152865631845625</v>
+        <v>0.001097590457131857</v>
       </c>
       <c r="P82" t="n">
-        <v>0.380484826940884</v>
+        <v>0.2727015024606116</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.5254413013012447</v>
+        <v>0.4421449655792623</v>
       </c>
       <c r="R82" t="n">
-        <v>9.699616567388237</v>
+        <v>8.504994196901393</v>
       </c>
       <c r="S82" t="n">
-        <v>148.235568654665</v>
+        <v>128.2234987196943</v>
       </c>
       <c r="T82" t="n">
-        <v>4.735209141979929</v>
+        <v>3.240383977248638</v>
       </c>
       <c r="U82" t="n">
-        <v>37.6490507456617</v>
+        <v>30.8141911739105</v>
       </c>
       <c r="V82" t="n">
-        <v>84.32419660975933</v>
+        <v>79.36360026616254</v>
       </c>
       <c r="W82" t="n">
-        <v>20.79913474187087</v>
+        <v>18.39478130014997</v>
       </c>
       <c r="X82" t="n">
-        <v>25.50954672130491</v>
+        <v>23.03354047095155</v>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>[ 4.46056075  1.80167048  3.07061547 10.20101037]</t>
+          <t>[ 2.73231635  1.80212248  3.07626421 10.20107273]</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>[np.float64(0.0015998424426662801) np.float64(1.117579251227039e-05)
- np.float64(6.220608890072992e-06) np.float64(2.618097959412072e-10)]</t>
+          <t>[np.float64(0.005633672214312548) np.float64(1.1173996027306347e-05)
+ np.float64(6.215522630779935e-06) np.float64(2.618004928565028e-10)]</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>[np.float64(0.014473416322396064) np.float64(4.392350301833887e-06)
- np.float64(1.3639567897202038e-05) np.float64(1.012576122744097e-08)]</t>
+          <t>[np.float64(0.012029111175100055) np.float64(4.38512231765003e-06)
+ np.float64(1.3643226299172121e-05) np.float64(1.0125829747172027e-08)]</t>
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>1.244985501968148e-05</v>
+        <v>1.244926285321796e-05</v>
       </c>
       <c r="AC82" t="n">
-        <v>173.3102335474192</v>
+        <v>156.3478914586661</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.00159984244266628</v>
+        <v>0.005633672214312548</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.01447341632239606</v>
+        <v>0.01202911117510005</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.1784224299765872</v>
+        <v>0.1092926540614828</v>
       </c>
       <c r="AG82" t="n">
-        <v>1.117579251227039e-05</v>
+        <v>1.117399602730635e-05</v>
       </c>
       <c r="AH82" t="n">
-        <v>4.392350301833887e-06</v>
+        <v>4.38512231765003e-06</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.1201113653719664</v>
+        <v>0.120141498547437</v>
       </c>
       <c r="AJ82" t="n">
-        <v>6.220608890072992e-06</v>
+        <v>6.215522630779935e-06</v>
       </c>
       <c r="AK82" t="n">
-        <v>1.363956789720204e-05</v>
+        <v>1.364322629917212e-05</v>
       </c>
       <c r="AL82" t="n">
-        <v>0.1535307733218328</v>
+        <v>0.1538132104093157</v>
       </c>
       <c r="AM82" t="n">
-        <v>2.618097959412072e-10</v>
+        <v>2.618004928565028e-10</v>
       </c>
       <c r="AN82" t="n">
-        <v>1.012576122744097e-08</v>
+        <v>1.012582974717203e-08</v>
       </c>
       <c r="AO82" t="n">
-        <v>0.1700168394558826</v>
+        <v>0.170017878867628</v>
       </c>
     </row>
     <row r="83">
@@ -11149,128 +11149,128 @@
         <v>1.1725</v>
       </c>
       <c r="D83" t="n">
-        <v>4.476088458681924</v>
+        <v>4.183467048627812</v>
       </c>
       <c r="E83" t="n">
-        <v>6007.753840577005</v>
+        <v>5201.716180897696</v>
       </c>
       <c r="F83" t="n">
-        <v>2934.016831455517</v>
+        <v>2376.433044300325</v>
       </c>
       <c r="G83" t="n">
-        <v>1893.3228946156</v>
+        <v>1772.456691099184</v>
       </c>
       <c r="H83" t="n">
-        <v>965.9323217966488</v>
+        <v>846.5186420819543</v>
       </c>
       <c r="I83" t="n">
-        <v>1176.142514696262</v>
+        <v>1053.4854252999</v>
       </c>
       <c r="J83" t="n">
         <v>60</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[0.17190075 0.11545889 0.1476727  0.16945606]</t>
+          <t>[0.10712269 0.11550908 0.14799744 0.16945541]</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>0.7818624913931506</v>
+        <v>0.5666149854977214</v>
       </c>
       <c r="M83" t="n">
-        <v>13.85034676058027</v>
+        <v>12.71898226079809</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.002847969600635976</v>
+        <v>0.00106883882439163</v>
       </c>
       <c r="P83" t="n">
-        <v>0.3573408613182465</v>
+        <v>0.2566706474946312</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.5285941669330902</v>
+        <v>0.4432425560363942</v>
       </c>
       <c r="R83" t="n">
-        <v>10.08010139432912</v>
+        <v>8.777695699362004</v>
       </c>
       <c r="S83" t="n">
-        <v>146.4616397295179</v>
+        <v>128.1143440332461</v>
       </c>
       <c r="T83" t="n">
-        <v>4.138241745270172</v>
+        <v>2.840278465092622</v>
       </c>
       <c r="U83" t="n">
-        <v>40.19603059094057</v>
+        <v>32.55713270691447</v>
       </c>
       <c r="V83" t="n">
-        <v>84.2031736511546</v>
+        <v>79.00858708347047</v>
       </c>
       <c r="W83" t="n">
-        <v>21.46685920745138</v>
+        <v>18.85171648392082</v>
       </c>
       <c r="X83" t="n">
-        <v>26.14334645581253</v>
+        <v>23.46726038551148</v>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>[ 4.29751875  1.73188333  2.95345391 10.16736338]</t>
+          <t>[ 2.6780673   1.73263614  2.95994882 10.16732442]</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>[np.float64(0.001227800706748728) np.float64(1.1633743911483462e-05)
- np.float64(6.496703332683673e-06) np.float64(2.472012494737353e-10)]</t>
+          <t>[np.float64(0.005260507935027924) np.float64(1.1631639727485394e-05)
+ np.float64(6.490298254281826e-06) np.float64(2.471917484842086e-10)]</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>[np.float64(0.014379697148357296) np.float64(4.581892513875495e-06)
- np.float64(1.3813573324185459e-05) np.float64(1.0106785388625539e-08)]</t>
+          <t>[np.float64(0.012081392797426043) np.float64(4.574149436749962e-06)
+ np.float64(1.3818032471367828e-05) np.float64(1.0106752945664312e-08)]</t>
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>1.278569887251052e-05</v>
+        <v>1.278611831201805e-05</v>
       </c>
       <c r="AC83" t="n">
-        <v>178.0454426893991</v>
+        <v>159.5882754359147</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.001227800706748728</v>
+        <v>0.005260507935027924</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.0143796971483573</v>
+        <v>0.01208139279742604</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.1719007498717477</v>
+        <v>0.1071226920978377</v>
       </c>
       <c r="AG83" t="n">
-        <v>1.163374391148346e-05</v>
+        <v>1.163163972748539e-05</v>
       </c>
       <c r="AH83" t="n">
-        <v>4.581892513875495e-06</v>
+        <v>4.574149436749962e-06</v>
       </c>
       <c r="AI83" t="n">
-        <v>0.1154588888424421</v>
+        <v>0.1155090758795737</v>
       </c>
       <c r="AJ83" t="n">
-        <v>6.496703332683673e-06</v>
+        <v>6.490298254281826e-06</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.381357332418546e-05</v>
+        <v>1.381803247136783e-05</v>
       </c>
       <c r="AL83" t="n">
-        <v>0.1476726953604415</v>
+        <v>0.1479974410306956</v>
       </c>
       <c r="AM83" t="n">
-        <v>2.472012494737353e-10</v>
+        <v>2.471917484842086e-10</v>
       </c>
       <c r="AN83" t="n">
-        <v>1.010678538862554e-08</v>
+        <v>1.010675294566431e-08</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.1694560564095318</v>
+        <v>0.1694554069303569</v>
       </c>
     </row>
     <row r="84">
@@ -11284,128 +11284,128 @@
         <v>1.179214285714286</v>
       </c>
       <c r="D84" t="n">
-        <v>4.467866364371021</v>
+        <v>4.162162230687951</v>
       </c>
       <c r="E84" t="n">
-        <v>6218.393968785796</v>
+        <v>5346.288841670736</v>
       </c>
       <c r="F84" t="n">
-        <v>3102.634254086654</v>
+        <v>2492.163459249144</v>
       </c>
       <c r="G84" t="n">
-        <v>1886.997059291995</v>
+        <v>1760.616387245794</v>
       </c>
       <c r="H84" t="n">
-        <v>991.6304174381212</v>
+        <v>864.1565066962652</v>
       </c>
       <c r="I84" t="n">
-        <v>1200.635552860075</v>
+        <v>1070.296199808393</v>
       </c>
       <c r="J84" t="n">
         <v>60</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[0.16581192 0.11097508 0.14229647 0.16890295]</t>
+          <t>[0.10509294 0.11104567 0.14266    0.16890048]</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.9055881196160549</v>
+        <v>0.6502202556627485</v>
       </c>
       <c r="M84" t="n">
-        <v>14.01369725768492</v>
+        <v>12.79847883639873</v>
       </c>
       <c r="N84" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0.002059507681795648</v>
+        <v>0.0008260716422582808</v>
       </c>
       <c r="P84" t="n">
-        <v>0.2962928527645918</v>
+        <v>0.2107494254149722</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.5314421365337262</v>
+        <v>0.4443113948607858</v>
       </c>
       <c r="R84" t="n">
-        <v>10.43744225564737</v>
+        <v>9.034366346856636</v>
       </c>
       <c r="S84" t="n">
-        <v>144.4340695757829</v>
+        <v>127.9465470162097</v>
       </c>
       <c r="T84" t="n">
-        <v>4.196519517700293</v>
+        <v>2.839612051517713</v>
       </c>
       <c r="U84" t="n">
-        <v>42.50608928098716</v>
+        <v>34.14263939171328</v>
       </c>
       <c r="V84" t="n">
-        <v>83.91635082770691</v>
+        <v>78.47588632935367</v>
       </c>
       <c r="W84" t="n">
-        <v>22.03398405563913</v>
+        <v>19.24096210862789</v>
       </c>
       <c r="X84" t="n">
-        <v>26.68387719179017</v>
+        <v>23.83825316544578</v>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>[ 4.14529803  1.66462626  2.84592932 10.13417693]</t>
+          <t>[ 2.62732349  1.66568499  2.85319992 10.13402879]</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>[np.float64(0.0009646902742332054) np.float64(1.2043267738028869e-05)
- np.float64(6.772988139404248e-06) np.float64(2.361283003006334e-10)]</t>
+          <t>[np.float64(0.0049414737997089) np.float64(1.2040890128892996e-05)
+ np.float64(6.76543910898335e-06) np.float64(2.361189412707718e-10)]</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>[np.float64(0.014234796145524857) np.float64(4.723302790797885e-06)
- np.float64(1.3941137507265883e-05) np.float64(1.0084703926675493e-08)]</t>
+          <t>[np.float64(0.012118290989829755) np.float64(4.7151490518373794e-06)
+ np.float64(1.3946104677403022e-05) np.float64(1.008456226097542e-08)]</t>
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>1.311724298374199e-05</v>
+        <v>1.311875323104132e-05</v>
       </c>
       <c r="AC84" t="n">
-        <v>182.1836844346693</v>
+        <v>162.4285539010073</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.0009646902742332054</v>
+        <v>0.0049414737997089</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.01423479614552486</v>
+        <v>0.01211829098982975</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.1658119211513424</v>
+        <v>0.1050929394258372</v>
       </c>
       <c r="AG84" t="n">
-        <v>1.204326773802887e-05</v>
+        <v>1.2040890128893e-05</v>
       </c>
       <c r="AH84" t="n">
-        <v>4.723302790797885e-06</v>
+        <v>4.715149051837379e-06</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.1109750838361887</v>
+        <v>0.1110456661460964</v>
       </c>
       <c r="AJ84" t="n">
-        <v>6.772988139404248e-06</v>
+        <v>6.76543910898335e-06</v>
       </c>
       <c r="AK84" t="n">
-        <v>1.394113750726588e-05</v>
+        <v>1.394610467740302e-05</v>
       </c>
       <c r="AL84" t="n">
-        <v>0.1422964661476422</v>
+        <v>0.1426599961396729</v>
       </c>
       <c r="AM84" t="n">
-        <v>2.361283003006334e-10</v>
+        <v>2.361189412707718e-10</v>
       </c>
       <c r="AN84" t="n">
-        <v>1.008470392667549e-08</v>
+        <v>1.008456226097542e-08</v>
       </c>
       <c r="AO84" t="n">
-        <v>0.1689029488502157</v>
+        <v>0.168900479835417</v>
       </c>
     </row>
     <row r="85">
@@ -11419,128 +11419,128 @@
         <v>1.18652380952381</v>
       </c>
       <c r="D85" t="n">
-        <v>4.457532761180539</v>
+        <v>4.148509880059635</v>
       </c>
       <c r="E85" t="n">
-        <v>6435.961551229798</v>
+        <v>5493.507870802316</v>
       </c>
       <c r="F85" t="n">
-        <v>3279.426563472329</v>
+        <v>2611.791539192478</v>
       </c>
       <c r="G85" t="n">
-        <v>1879.968422572491</v>
+        <v>1752.562552885118</v>
       </c>
       <c r="H85" t="n">
-        <v>1017.005013767733</v>
+        <v>881.3264517509824</v>
       </c>
       <c r="I85" t="n">
-        <v>1224.927032465076</v>
+        <v>1086.733244350809</v>
       </c>
       <c r="J85" t="n">
         <v>60</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[0.25267443 0.1070784  0.13837686 0.16835174]</t>
+          <t>[0.10338272 0.10716381 0.13878104 0.16835026]</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0.9571086426821869</v>
+        <v>0.6865437730727901</v>
       </c>
       <c r="M85" t="n">
-        <v>14.18691735054283</v>
+        <v>12.8823195151178</v>
       </c>
       <c r="N85" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01015471034686179</v>
+        <v>0.0006964120702929691</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2553028279737149</v>
+        <v>0.1813821899027157</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.5335016442155218</v>
+        <v>0.4451374665030441</v>
       </c>
       <c r="R85" t="n">
-        <v>10.73373510841196</v>
+        <v>9.245115772271609</v>
       </c>
       <c r="S85" t="n">
-        <v>143.5508211930009</v>
+        <v>127.8447391058215</v>
       </c>
       <c r="T85" t="n">
-        <v>4.060903886764664</v>
+        <v>2.737228022055371</v>
       </c>
       <c r="U85" t="n">
-        <v>44.92814391957091</v>
+        <v>35.78154408693695</v>
       </c>
       <c r="V85" t="n">
-        <v>83.59813068689672</v>
+        <v>78.11201528759375</v>
       </c>
       <c r="W85" t="n">
-        <v>22.59354374766414</v>
+        <v>19.61959312376219</v>
       </c>
       <c r="X85" t="n">
-        <v>27.21955203248681</v>
+        <v>24.20072228465784</v>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>[ 6.31686072  1.60617599  2.76753722 10.10110425]</t>
+          <t>[ 2.58456794  1.60745713  2.7756209  10.10101573]</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>[np.float64(0.0007897675495691398) np.float64(1.2476256839073876e-05)
- np.float64(7.082332382631258e-06) np.float64(2.2377537048602282e-10)]</t>
+          <t>[np.float64(0.004620064666589592) np.float64(1.2473607599450553e-05)
+ np.float64(7.073394151814829e-06) np.float64(2.2376733947761451e-10)]</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>[np.float64(0.014121354448010196) np.float64(4.86835327295052e-06)
- np.float64(1.4088266449284235e-05) np.float64(1.0063982901814514e-08)]</t>
+          <t>[np.float64(0.012159073087135656) np.float64(4.859829493557074e-06)
+ np.float64(1.409386180021752e-05) np.float64(1.0063899518816823e-08)]</t>
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>1.344798253049788e-05</v>
+        <v>1.344889667055887e-05</v>
       </c>
       <c r="AC85" t="n">
-        <v>186.3802039523696</v>
+        <v>165.268165952525</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.0007897675495691398</v>
+        <v>0.004620064666589592</v>
       </c>
       <c r="AE85" t="n">
-        <v>0.0141213544480102</v>
+        <v>0.01215907308713566</v>
       </c>
       <c r="AF85" t="n">
-        <v>0.2526744287348139</v>
+        <v>0.1033827174245811</v>
       </c>
       <c r="AG85" t="n">
-        <v>1.247625683907388e-05</v>
+        <v>1.247360759945055e-05</v>
       </c>
       <c r="AH85" t="n">
-        <v>4.86835327295052e-06</v>
+        <v>4.859829493557074e-06</v>
       </c>
       <c r="AI85" t="n">
-        <v>0.1070783996022505</v>
+        <v>0.1071638089302302</v>
       </c>
       <c r="AJ85" t="n">
-        <v>7.082332382631258e-06</v>
+        <v>7.073394151814829e-06</v>
       </c>
       <c r="AK85" t="n">
-        <v>1.408826644928423e-05</v>
+        <v>1.409386180021752e-05</v>
       </c>
       <c r="AL85" t="n">
-        <v>0.1383768609719624</v>
+        <v>0.1387810448537599</v>
       </c>
       <c r="AM85" t="n">
-        <v>2.237753704860228e-10</v>
+        <v>2.237673394776145e-10</v>
       </c>
       <c r="AN85" t="n">
-        <v>1.006398290181451e-08</v>
+        <v>1.006389951881682e-08</v>
       </c>
       <c r="AO85" t="n">
-        <v>0.1683517374667073</v>
+        <v>0.1683502621175907</v>
       </c>
     </row>
     <row r="86">
@@ -11554,128 +11554,128 @@
         <v>1.194095238095238</v>
       </c>
       <c r="D86" t="n">
-        <v>4.442913814456285</v>
+        <v>4.135518894799731</v>
       </c>
       <c r="E86" t="n">
-        <v>6650.814942797454</v>
+        <v>5638.328516754901</v>
       </c>
       <c r="F86" t="n">
-        <v>3456.840216892239</v>
+        <v>2731.376153154641</v>
       </c>
       <c r="G86" t="n">
-        <v>1871.442854742253</v>
+        <v>1745.27466643405</v>
       </c>
       <c r="H86" t="n">
-        <v>1040.806677107876</v>
+        <v>897.3698208340345</v>
       </c>
       <c r="I86" t="n">
-        <v>1247.842127628029</v>
+        <v>1102.179027446669</v>
       </c>
       <c r="J86" t="n">
         <v>60</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>[0.31182251 0.10352955 0.13545303 0.1678109 ]</t>
+          <t>[0.10183132 0.10361743 0.13590309 0.16780795]</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.9072946577972006</v>
+        <v>0.6074138185895024</v>
       </c>
       <c r="M86" t="n">
-        <v>14.40334648409833</v>
+        <v>12.96647419344717</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01255901504709349</v>
+        <v>0.0008552032100030797</v>
       </c>
       <c r="P86" t="n">
-        <v>0.3038919931127938</v>
+        <v>0.2014951960916895</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.5436563545623836</v>
+        <v>0.4458338785733371</v>
       </c>
       <c r="R86" t="n">
-        <v>10.98903793638567</v>
+        <v>9.426497962174324</v>
       </c>
       <c r="S86" t="n">
-        <v>142.5806973340833</v>
+        <v>127.768294863881</v>
       </c>
       <c r="T86" t="n">
-        <v>4.560200873088953</v>
+        <v>2.849041266108843</v>
       </c>
       <c r="U86" t="n">
-        <v>47.35871097142368</v>
+        <v>37.41985329821858</v>
       </c>
       <c r="V86" t="n">
-        <v>83.21355566134838</v>
+        <v>77.78257093820781</v>
       </c>
       <c r="W86" t="n">
-        <v>23.11798223051933</v>
+        <v>19.97308775233345</v>
       </c>
       <c r="X86" t="n">
-        <v>27.72445614653976</v>
+        <v>24.54104988855438</v>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>[ 7.79556274  1.55294318  2.70906059 10.06865412]</t>
+          <t>[ 2.545783    1.55426148  2.71806182 10.0684768 ]</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>[np.float64(0.0005368773309032816) np.float64(1.2916686918010183e-05)
- np.float64(7.403320783646993e-06) np.float64(2.114234204511753e-10)]</t>
+          <t>[np.float64(0.00431039202116855) np.float64(1.2913729343800281e-05)
+ np.float64(7.393976596841379e-06) np.float64(2.1141589328328186e-10)]</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>[np.float64(0.01406874035844988) np.float64(5.013839879540327e-06)
- np.float64(1.4238226752097545e-05) np.float64(1.0043850753670012e-08)]</t>
+          <t>[np.float64(0.01219894221096733) np.float64(5.004251308420478e-06)
+ np.float64(1.4245237896334649e-05) np.float64(1.004367796710026e-08)]</t>
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>1.377282351229139e-05</v>
+        <v>1.377462664966783e-05</v>
       </c>
       <c r="AC86" t="n">
-        <v>190.4411078391342</v>
+        <v>168.0053939745804</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.0005368773309032816</v>
+        <v>0.00431039202116855</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.01406874035844988</v>
+        <v>0.01219894221096733</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.3118225097704651</v>
+        <v>0.1018313198675764</v>
       </c>
       <c r="AG86" t="n">
-        <v>1.291668691801018e-05</v>
+        <v>1.291372934380028e-05</v>
       </c>
       <c r="AH86" t="n">
-        <v>5.013839879540327e-06</v>
+        <v>5.004251308420478e-06</v>
       </c>
       <c r="AI86" t="n">
-        <v>0.1035295455603903</v>
+        <v>0.1036174316701739</v>
       </c>
       <c r="AJ86" t="n">
-        <v>7.403320783646993e-06</v>
+        <v>7.393976596841379e-06</v>
       </c>
       <c r="AK86" t="n">
-        <v>1.423822675209755e-05</v>
+        <v>1.424523789633465e-05</v>
       </c>
       <c r="AL86" t="n">
-        <v>0.1354530295648302</v>
+        <v>0.135903090781702</v>
       </c>
       <c r="AM86" t="n">
-        <v>2.114234204511753e-10</v>
+        <v>2.114158932832819e-10</v>
       </c>
       <c r="AN86" t="n">
-        <v>1.004385075367001e-08</v>
+        <v>1.004367796710026e-08</v>
       </c>
       <c r="AO86" t="n">
-        <v>0.1678109020426855</v>
+        <v>0.1678079467391593</v>
       </c>
     </row>
     <row r="87">
@@ -11689,128 +11689,128 @@
         <v>1.201261904761905</v>
       </c>
       <c r="D87" t="n">
-        <v>4.429396554811521</v>
+        <v>4.112266131034533</v>
       </c>
       <c r="E87" t="n">
-        <v>6897.293491769666</v>
+        <v>5792.319004624966</v>
       </c>
       <c r="F87" t="n">
-        <v>3663.727268655257</v>
+        <v>2860.631368944548</v>
       </c>
       <c r="G87" t="n">
-        <v>1863.415533926632</v>
+        <v>1733.32834648979</v>
       </c>
       <c r="H87" t="n">
-        <v>1066.618849722146</v>
+        <v>913.4962913542175</v>
       </c>
       <c r="I87" t="n">
-        <v>1272.86635144838</v>
+        <v>1117.813217321342</v>
       </c>
       <c r="J87" t="n">
         <v>60</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[0.30573777 0.10001413 0.13148645 0.16727308]</t>
+          <t>[0.10028186 0.10011576 0.13196687 0.16726854]</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>0.817954835777568</v>
+        <v>0.4960637146000312</v>
       </c>
       <c r="M87" t="n">
-        <v>14.60579168372938</v>
+        <v>13.04244052648523</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0.006451700271346709</v>
+        <v>0.001062208145990677</v>
       </c>
       <c r="P87" t="n">
-        <v>0.3403644192659205</v>
+        <v>0.2043456459141465</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.556215369609477</v>
+        <v>0.4466890817833402</v>
       </c>
       <c r="R87" t="n">
-        <v>11.29292992949847</v>
+        <v>9.627993158266014</v>
       </c>
       <c r="S87" t="n">
-        <v>139.3912160023694</v>
+        <v>127.6078685215821</v>
       </c>
       <c r="T87" t="n">
-        <v>4.252422911941714</v>
+        <v>2.320458920940651</v>
       </c>
       <c r="U87" t="n">
-        <v>50.19306358057703</v>
+        <v>39.1906497545403</v>
       </c>
       <c r="V87" t="n">
-        <v>82.85062203154047</v>
+        <v>77.24552149631648</v>
       </c>
       <c r="W87" t="n">
-        <v>23.68623106486712</v>
+        <v>20.32810816119944</v>
       </c>
       <c r="X87" t="n">
-        <v>28.27535847579627</v>
+        <v>24.88523285621916</v>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>[ 7.64344415  1.50021196  2.62972901 10.03638452]</t>
+          <t>[ 2.50704654  1.50173644  2.63933748 10.03611222]</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>[np.float64(0.00033137631622396187) np.float64(1.332384660379718e-05)
- np.float64(7.706802357439394e-06) np.float64(2.0100821432774028e-10)]</t>
+          <t>[np.float64(0.003996854193947051) np.float64(1.3320889194405774e-05)
+ np.float64(7.697122238581307e-06) np.float64(2.0100137421534304e-10)]</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>[np.float64(0.013815039188221091) np.float64(5.141034820763779e-06)
- np.float64(1.4367786745268913e-05) np.float64(1.0021935062479544e-08)]</t>
+          <t>[np.float64(0.012229921756406432) np.float64(5.130863037207957e-06)
+ np.float64(1.4376148096140724e-05) np.float64(1.0021666418966775e-08)]</t>
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>1.409613248543042e-05</v>
+        <v>1.409888732168207e-05</v>
       </c>
       <c r="AC87" t="n">
-        <v>195.0013087122232</v>
+        <v>170.8544352406893</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.0003313763162239619</v>
+        <v>0.003996854193947051</v>
       </c>
       <c r="AE87" t="n">
-        <v>0.01381503918822109</v>
+        <v>0.01222992175640643</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.3057377658619533</v>
+        <v>0.1002818617334991</v>
       </c>
       <c r="AG87" t="n">
-        <v>1.332384660379718e-05</v>
+        <v>1.332088919440577e-05</v>
       </c>
       <c r="AH87" t="n">
-        <v>5.141034820763779e-06</v>
+        <v>5.130863037207957e-06</v>
       </c>
       <c r="AI87" t="n">
-        <v>0.1000141305915036</v>
+        <v>0.100115762995788</v>
       </c>
       <c r="AJ87" t="n">
-        <v>7.706802357439394e-06</v>
+        <v>7.697122238581307e-06</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.436778674526891e-05</v>
+        <v>1.437614809614072e-05</v>
       </c>
       <c r="AL87" t="n">
-        <v>0.1314864503297059</v>
+        <v>0.1319668741570366</v>
       </c>
       <c r="AM87" t="n">
-        <v>2.010082143277403e-10</v>
+        <v>2.01001374215343e-10</v>
       </c>
       <c r="AN87" t="n">
-        <v>1.002193506247954e-08</v>
+        <v>1.002166641896677e-08</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.1672730753558304</v>
+        <v>0.1672685370168148</v>
       </c>
     </row>
     <row r="88">
@@ -11824,128 +11824,128 @@
         <v>1.208785714285715</v>
       </c>
       <c r="D88" t="n">
-        <v>4.410642373435786</v>
+        <v>4.071282189092979</v>
       </c>
       <c r="E88" t="n">
-        <v>7131.484666484845</v>
+        <v>5920.112267860222</v>
       </c>
       <c r="F88" t="n">
-        <v>3863.026188730015</v>
+        <v>2969.384653036449</v>
       </c>
       <c r="G88" t="n">
-        <v>1853.589018793255</v>
+        <v>1713.481145616813</v>
       </c>
       <c r="H88" t="n">
-        <v>1089.860651018523</v>
+        <v>926.1788599212937</v>
       </c>
       <c r="I88" t="n">
-        <v>1295.516643207423</v>
+        <v>1130.173011411103</v>
       </c>
       <c r="J88" t="n">
         <v>60</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[0.29854442 0.09646096 0.12739807 0.16674112]</t>
+          <t>[0.09871415 0.09657958 0.12790898 0.16673496]</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0.9436297625416963</v>
+        <v>0.6636574576034171</v>
       </c>
       <c r="M88" t="n">
-        <v>14.8199345269859</v>
+        <v>13.11960544883608</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0.002919869543330141</v>
+        <v>0.0006333781865208525</v>
       </c>
       <c r="P88" t="n">
-        <v>0.2232060580584919</v>
+        <v>0.1552533776405285</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.5626670698808237</v>
+        <v>0.4477512899293308</v>
       </c>
       <c r="R88" t="n">
-        <v>11.63329434876439</v>
+        <v>9.832338804180161</v>
       </c>
       <c r="S88" t="n">
-        <v>136.0498934667362</v>
+        <v>127.5124837983268</v>
       </c>
       <c r="T88" t="n">
-        <v>2.958669721202402</v>
+        <v>1.915118914383457</v>
       </c>
       <c r="U88" t="n">
-        <v>52.9234587856012</v>
+        <v>40.68056974659936</v>
       </c>
       <c r="V88" t="n">
-        <v>82.40826594527599</v>
+        <v>76.35740281444028</v>
       </c>
       <c r="W88" t="n">
-        <v>24.19747737103807</v>
+        <v>20.60708465919095</v>
       </c>
       <c r="X88" t="n">
-        <v>28.77359343821764</v>
+        <v>25.15710933398634</v>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>[ 7.46361061  1.44691437  2.54796134 10.0044672 ]</t>
+          <t>[ 2.46785383  1.44869374  2.5581796  10.00409767]</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>[np.float64(0.00021152845307391307) np.float64(1.3737088506701887e-05)
- np.float64(8.022032969467907e-06) np.float64(1.9028205411315355e-10)]</t>
+          <t>[np.float64(0.003736276717650264) np.float64(1.3734224133687739e-05)
+ np.float64(8.012022655348826e-06) np.float64(1.9027628272376153e-10)]</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>[np.float64(0.013518588364566212) np.float64(5.27328705829295e-06)
- np.float64(1.4502350600220772e-05) np.float64(1.000065511333267e-08)]</t>
+          <t>[np.float64(0.01225977573456297) np.float64(5.262658656309587e-06)
+ np.float64(1.4512189842065151e-05) np.float64(1.0000287896456058e-08)]</t>
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>1.441619357904501e-05</v>
+        <v>1.441992346170505e-05</v>
       </c>
       <c r="AC88" t="n">
-        <v>199.2537316241649</v>
+        <v>173.1748941616299</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.0002115284530739131</v>
+        <v>0.003736276717650264</v>
       </c>
       <c r="AE88" t="n">
-        <v>0.01351858836456621</v>
+        <v>0.01225977573456297</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.2985444245658623</v>
+        <v>0.09871415312906877</v>
       </c>
       <c r="AG88" t="n">
-        <v>1.373708850670189e-05</v>
+        <v>1.373422413368774e-05</v>
       </c>
       <c r="AH88" t="n">
-        <v>5.27328705829295e-06</v>
+        <v>5.262658656309587e-06</v>
       </c>
       <c r="AI88" t="n">
-        <v>0.09646095781742964</v>
+        <v>0.0965795829253023</v>
       </c>
       <c r="AJ88" t="n">
-        <v>8.022032969467907e-06</v>
+        <v>8.012022655348826e-06</v>
       </c>
       <c r="AK88" t="n">
-        <v>1.450235060022077e-05</v>
+        <v>1.451218984206515e-05</v>
       </c>
       <c r="AL88" t="n">
-        <v>0.1273980668636749</v>
+        <v>0.1279089800565097</v>
       </c>
       <c r="AM88" t="n">
-        <v>1.902820541131535e-10</v>
+        <v>1.902762827237615e-10</v>
       </c>
       <c r="AN88" t="n">
-        <v>1.000065511333267e-08</v>
+        <v>1.000028789645606e-08</v>
       </c>
       <c r="AO88" t="n">
-        <v>0.1667411199191093</v>
+        <v>0.1667349610854556</v>
       </c>
     </row>
     <row r="89">
@@ -11959,128 +11959,128 @@
         <v>1.216214285714286</v>
       </c>
       <c r="D89" t="n">
-        <v>4.383905830535412</v>
+        <v>4.045974127507451</v>
       </c>
       <c r="E89" t="n">
-        <v>7296.226179043246</v>
+        <v>6026.696262572833</v>
       </c>
       <c r="F89" t="n">
-        <v>4004.214371892924</v>
+        <v>3060.730181762148</v>
       </c>
       <c r="G89" t="n">
-        <v>1840.498806838923</v>
+        <v>1701.333563901488</v>
       </c>
       <c r="H89" t="n">
-        <v>1105.466379158162</v>
+        <v>936.2754094775696</v>
       </c>
       <c r="I89" t="n">
-        <v>1310.625501765069</v>
+        <v>1139.990285393303</v>
       </c>
       <c r="J89" t="n">
         <v>60</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[0.2944853  0.09350858 0.12499483 0.16620283]</t>
+          <t>[0.09742149 0.09364329 0.12551766 0.16620664]</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>0.7994709844581475</v>
+        <v>0.4710982219064749</v>
       </c>
       <c r="M89" t="n">
-        <v>15.03046104468824</v>
+        <v>13.19164027496934</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0041761699266086</v>
+        <v>0.001067326313157018</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3131505065072053</v>
+        <v>0.1824636727565228</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.5655869394241538</v>
+        <v>0.4483846681158517</v>
       </c>
       <c r="R89" t="n">
-        <v>11.85650040682288</v>
+        <v>9.987592181820689</v>
       </c>
       <c r="S89" t="n">
-        <v>133.7087130873109</v>
+        <v>127.4747444473974</v>
       </c>
       <c r="T89" t="n">
-        <v>3.123405317467375</v>
+        <v>1.538405617671036</v>
       </c>
       <c r="U89" t="n">
-        <v>54.85773689493306</v>
+        <v>41.93200349014144</v>
       </c>
       <c r="V89" t="n">
-        <v>81.82229622368861</v>
+        <v>75.81295397054276</v>
       </c>
       <c r="W89" t="n">
-        <v>24.5404606214385</v>
+        <v>20.82898698592983</v>
       </c>
       <c r="X89" t="n">
-        <v>29.10565647119967</v>
+        <v>25.37287373218407</v>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>[7.36213247 1.40262865 2.4998967  9.97216977]</t>
+          <t>[2.43553733 1.40464932 2.51035327 9.97239816]</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>[np.float64(0.0001440971993813188) np.float64(1.4130880332250724e-05)
- np.float64(8.331771125647722e-06) np.float64(1.8047141515928675e-10)]</t>
+          <t>[np.float64(0.003519510821285893) np.float64(1.412820541576253e-05)
+ np.float64(8.321547468229463e-06) np.float64(1.8046900072917172e-10)]</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>[np.float64(0.01330503074459755) np.float64(5.396797349627813e-06)
- np.float64(1.4625673591340652e-05) np.float64(9.978052339786192e-09)]</t>
+          <t>[np.float64(0.012288013883010809) np.float64(5.385834299073177e-06)
+ np.float64(1.4636916290074604e-05) np.float64(9.978281837556555e-09)]</t>
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>1.474032770404846e-05</v>
+        <v>1.473805687064599e-05</v>
       </c>
       <c r="AC89" t="n">
-        <v>202.2124013453673</v>
+        <v>175.0900130760134</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.0001440971993813188</v>
+        <v>0.003519510821285893</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.01330503074459755</v>
+        <v>0.01228801388301081</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.2944852986757702</v>
+        <v>0.09742149323527766</v>
       </c>
       <c r="AG89" t="n">
-        <v>1.413088033225072e-05</v>
+        <v>1.412820541576253e-05</v>
       </c>
       <c r="AH89" t="n">
-        <v>5.396797349627813e-06</v>
+        <v>5.385834299073177e-06</v>
       </c>
       <c r="AI89" t="n">
-        <v>0.09350857690471152</v>
+        <v>0.09364328806372489</v>
       </c>
       <c r="AJ89" t="n">
-        <v>8.331771125647722e-06</v>
+        <v>8.321547468229463e-06</v>
       </c>
       <c r="AK89" t="n">
-        <v>1.462567359134065e-05</v>
+        <v>1.46369162900746e-05</v>
       </c>
       <c r="AL89" t="n">
-        <v>0.1249948349190407</v>
+        <v>0.1255176633764489</v>
       </c>
       <c r="AM89" t="n">
-        <v>1.804714151592868e-10</v>
+        <v>1.804690007291717e-10</v>
       </c>
       <c r="AN89" t="n">
-        <v>9.978052339786192e-09</v>
+        <v>9.978281837556555e-09</v>
       </c>
       <c r="AO89" t="n">
-        <v>0.1662028294563416</v>
+        <v>0.1662066360528324</v>
       </c>
     </row>
     <row r="90">
@@ -12094,128 +12094,128 @@
         <v>1.224809523809524</v>
       </c>
       <c r="D90" t="n">
-        <v>4.3591529446516</v>
+        <v>3.996908715809107</v>
       </c>
       <c r="E90" t="n">
-        <v>7472.044346709125</v>
+        <v>6113.293943415976</v>
       </c>
       <c r="F90" t="n">
-        <v>4155.940427212358</v>
+        <v>3135.461506110328</v>
       </c>
       <c r="G90" t="n">
-        <v>1828.291650129076</v>
+        <v>1678.387473623437</v>
       </c>
       <c r="H90" t="n">
-        <v>1121.337736322172</v>
+        <v>944.0927058382528</v>
       </c>
       <c r="I90" t="n">
-        <v>1325.889312155003</v>
+        <v>1147.508339972906</v>
       </c>
       <c r="J90" t="n">
         <v>60</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[0.28778997 0.09039662 0.1214147  0.16567514]</t>
+          <t>[0.09604726 0.09055008 0.12196691 0.16567727]</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>0.7900309604509661</v>
+        <v>0.4587065913070611</v>
       </c>
       <c r="M90" t="n">
-        <v>15.28438620490286</v>
+        <v>13.27472985071197</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0.003847543992801608</v>
+        <v>0.001130309032811565</v>
       </c>
       <c r="P90" t="n">
-        <v>0.2989171289914949</v>
+        <v>0.1714148805749482</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.5697631093507625</v>
+        <v>0.4494519944290087</v>
       </c>
       <c r="R90" t="n">
-        <v>12.16965091333009</v>
+        <v>10.17005585457721</v>
       </c>
       <c r="S90" t="n">
-        <v>131.0264704435932</v>
+        <v>127.5169580188819</v>
       </c>
       <c r="T90" t="n">
-        <v>4.127529992563688</v>
+        <v>2.165022712356273</v>
       </c>
       <c r="U90" t="n">
-        <v>56.93638385280931</v>
+        <v>42.95582263371151</v>
       </c>
       <c r="V90" t="n">
-        <v>81.27518773115834</v>
+        <v>74.78785616863536</v>
       </c>
       <c r="W90" t="n">
-        <v>24.88898712224739</v>
+        <v>21.0006506261731</v>
       </c>
       <c r="X90" t="n">
-        <v>29.44084157032135</v>
+        <v>25.53796618322291</v>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>[7.19474915 1.35594929 2.42829405 9.94050842]</t>
+          <t>[2.40118162 1.35825116 2.43933814 9.94063617]</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>[np.float64(0.00010489661081227711) np.float64(1.4583621483501491e-05)
- np.float64(8.693047444012636e-06) np.float64(1.6874688193491894e-10)]</t>
+          <t>[np.float64(0.003335409187022706) np.float64(1.4581300533094042e-05)
+ np.float64(8.682514000125719e-06) np.float64(1.687433974148919e-10)]</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>[np.float64(0.01304873829252634) np.float64(5.54724804409741e-06)
- np.float64(1.4782316602362645e-05) np.float64(9.957971006709442e-09)]</t>
+          <t>[np.float64(0.012319878389446048) np.float64(5.536135872126104e-06)
+ np.float64(1.4795369841033583e-05) np.float64(9.95810046899359e-09)]</t>
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>1.505838636705964e-05</v>
+        <v>1.505712658941844e-05</v>
       </c>
       <c r="AC90" t="n">
-        <v>205.3358066628347</v>
+        <v>176.6284186936844</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.0001048966108122771</v>
+        <v>0.003335409187022706</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.01304873829252634</v>
+        <v>0.01231987838944605</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.2877899660372993</v>
+        <v>0.09604726463440735</v>
       </c>
       <c r="AG90" t="n">
-        <v>1.458362148350149e-05</v>
+        <v>1.458130053309404e-05</v>
       </c>
       <c r="AH90" t="n">
-        <v>5.54724804409741e-06</v>
+        <v>5.536135872126104e-06</v>
       </c>
       <c r="AI90" t="n">
-        <v>0.09039661910688375</v>
+        <v>0.09055007717732934</v>
       </c>
       <c r="AJ90" t="n">
-        <v>8.693047444012636e-06</v>
+        <v>8.682514000125719e-06</v>
       </c>
       <c r="AK90" t="n">
-        <v>1.478231660236265e-05</v>
+        <v>1.479536984103358e-05</v>
       </c>
       <c r="AL90" t="n">
-        <v>0.1214147027194106</v>
+        <v>0.1219669069883526</v>
       </c>
       <c r="AM90" t="n">
-        <v>1.687468819349189e-10</v>
+        <v>1.687433974148919e-10</v>
       </c>
       <c r="AN90" t="n">
-        <v>9.957971006709442e-09</v>
+        <v>9.958100468993589e-09</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.1656751402978079</v>
+        <v>0.165677269502998</v>
       </c>
     </row>
     <row r="91">
@@ -12229,128 +12229,128 @@
         <v>1.231166666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>4.340407645909317</v>
+        <v>3.950128439715886</v>
       </c>
       <c r="E91" t="n">
-        <v>7707.342451607648</v>
+        <v>6236.31240218688</v>
       </c>
       <c r="F91" t="n">
-        <v>4360.613923524756</v>
+        <v>3242.468819571106</v>
       </c>
       <c r="G91" t="n">
-        <v>1819.020875618754</v>
+        <v>1656.67298838445</v>
       </c>
       <c r="H91" t="n">
-        <v>1141.364966450535</v>
+        <v>954.5633340862105</v>
       </c>
       <c r="I91" t="n">
-        <v>1344.996640887217</v>
+        <v>1157.820260269969</v>
       </c>
       <c r="J91" t="n">
         <v>60</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[0.28133004 0.08749138 0.11810754 0.1651494 ]</t>
+          <t>[0.09476315 0.08766581 0.11869029 0.16514983]</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>0.7923970916155529</v>
+        <v>0.4608008443365679</v>
       </c>
       <c r="M91" t="n">
-        <v>15.46092950511192</v>
+        <v>13.32967377593209</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0.00288720332231385</v>
+        <v>0.0009528139611965287</v>
       </c>
       <c r="P91" t="n">
-        <v>0.2780623978388425</v>
+        <v>0.1594951101084933</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.5736106533435641</v>
+        <v>0.4505823034618203</v>
       </c>
       <c r="R91" t="n">
-        <v>12.46856804232158</v>
+        <v>10.34147073515216</v>
       </c>
       <c r="S91" t="n">
-        <v>127.15545654772</v>
+        <v>127.3256866855692</v>
       </c>
       <c r="T91" t="n">
-        <v>3.975441198818852</v>
+        <v>2.106168515193482</v>
       </c>
       <c r="U91" t="n">
-        <v>59.74041075228916</v>
+        <v>44.42182282812417</v>
       </c>
       <c r="V91" t="n">
-        <v>80.8569355551183</v>
+        <v>73.81648642359015</v>
       </c>
       <c r="W91" t="n">
-        <v>25.3283440199646</v>
+        <v>21.23035501937613</v>
       </c>
       <c r="X91" t="n">
-        <v>29.86001769311224</v>
+        <v>25.76418884517797</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>[7.03325107 1.31237069 2.36215072 9.90896376]</t>
+          <t>[2.36907873 1.31498718 2.37380589 9.90899009]</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>[np.float64(8.252493655336605e-05) np.float64(1.4904901523800876e-05)
- np.float64(8.961275794129583e-06) np.float64(1.6249960427423096e-10)]</t>
+          <t>[np.float64(0.003104126042433596) np.float64(1.4902915580193468e-05)
+ np.float64(8.950838785487623e-06) np.float64(1.6249569250300572e-10)]</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>[np.float64(0.012668461161820995) np.float64(5.633650572396839e-06)
- np.float64(1.486519663235997e-05) np.float64(9.932513323578136e-09)]</t>
+          <t>[np.float64(0.012333406117822642) np.float64(5.62237616874893e-06)
+ np.float64(1.4879191576464481e-05) np.float64(9.932541270294592e-09)]</t>
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>1.537543597497958e-05</v>
+        <v>1.537519562552727e-05</v>
       </c>
       <c r="AC91" t="n">
-        <v>209.4633366553984</v>
+        <v>178.7934414060407</v>
       </c>
       <c r="AD91" t="n">
-        <v>8.252493655336605e-05</v>
+        <v>0.003104126042433596</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.01266846116182099</v>
+        <v>0.01233340611782264</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.2813300428692434</v>
+        <v>0.09476314929940542</v>
       </c>
       <c r="AG91" t="n">
-        <v>1.490490152380088e-05</v>
+        <v>1.490291558019347e-05</v>
       </c>
       <c r="AH91" t="n">
-        <v>5.633650572396839e-06</v>
+        <v>5.62237616874893e-06</v>
       </c>
       <c r="AI91" t="n">
-        <v>0.08749137901914117</v>
+        <v>0.08766581231765583</v>
       </c>
       <c r="AJ91" t="n">
-        <v>8.961275794129583e-06</v>
+        <v>8.950838785487623e-06</v>
       </c>
       <c r="AK91" t="n">
-        <v>1.486519663235997e-05</v>
+        <v>1.487919157646448e-05</v>
       </c>
       <c r="AL91" t="n">
-        <v>0.1181075359392558</v>
+        <v>0.1186902943909874</v>
       </c>
       <c r="AM91" t="n">
-        <v>1.62499604274231e-10</v>
+        <v>1.624956925030057e-10</v>
       </c>
       <c r="AN91" t="n">
-        <v>9.932513323578136e-09</v>
+        <v>9.932541270294592e-09</v>
       </c>
       <c r="AO91" t="n">
-        <v>0.1651493960167468</v>
+        <v>0.1651498348131596</v>
       </c>
     </row>
     <row r="92">
@@ -12364,128 +12364,128 @@
         <v>1.236714285714286</v>
       </c>
       <c r="D92" t="n">
-        <v>4.321116930625191</v>
+        <v>3.903107990174132</v>
       </c>
       <c r="E92" t="n">
-        <v>7936.108232439029</v>
+        <v>6356.965181450425</v>
       </c>
       <c r="F92" t="n">
-        <v>4560.768730700158</v>
+        <v>3348.03195790809</v>
       </c>
       <c r="G92" t="n">
-        <v>1809.585453968538</v>
+        <v>1635.155258060465</v>
       </c>
       <c r="H92" t="n">
-        <v>1159.963624432126</v>
+        <v>964.3724050403366</v>
       </c>
       <c r="I92" t="n">
-        <v>1362.632618605643</v>
+        <v>1167.554556773029</v>
       </c>
       <c r="J92" t="n">
         <v>60</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[0.27536601 0.08480686 0.11510489 0.16462393]</t>
+          <t>[0.09358421 0.08500408 0.11571937 0.16462267]</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.9886425327115994</v>
+        <v>0.7408294645167776</v>
       </c>
       <c r="M92" t="n">
-        <v>15.61560061885969</v>
+        <v>13.37549011950588</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0.001226411829280608</v>
+        <v>0.0004469061966475915</v>
       </c>
       <c r="P92" t="n">
-        <v>0.1528086637885823</v>
+        <v>0.1127885930318014</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.5764978566658779</v>
+        <v>0.4515351174230168</v>
       </c>
       <c r="R92" t="n">
-        <v>12.74663044016043</v>
+        <v>10.50096584526065</v>
       </c>
       <c r="S92" t="n">
-        <v>123.3747429273486</v>
+        <v>127.1038500060251</v>
       </c>
       <c r="T92" t="n">
-        <v>2.677928101249258</v>
+        <v>1.910370304401907</v>
       </c>
       <c r="U92" t="n">
-        <v>62.48253161059217</v>
+        <v>45.86803782334085</v>
       </c>
       <c r="V92" t="n">
-        <v>80.43144968415426</v>
+        <v>72.85395499894733</v>
       </c>
       <c r="W92" t="n">
-        <v>25.73606535012521</v>
+        <v>21.44539029025506</v>
       </c>
       <c r="X92" t="n">
-        <v>30.24663506632039</v>
+        <v>25.97758490430942</v>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>[6.88415014 1.2721029  2.30209785 9.87743575]</t>
+          <t>[2.33960533 1.27506116 2.31438735 9.87736013]</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>[np.float64(6.857432558787358e-05) np.float64(1.5187439584136104e-05)
- np.float64(9.205125553275202e-06) np.float64(1.5802731972067463e-10)]</t>
+          <t>[np.float64(0.0028841609488638614) np.float64(1.5185859590848596e-05)
+ np.float64(9.194983901700951e-06) np.float64(1.5802320558917397e-10)]</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>[np.float64(0.012294629725453256) np.float64(5.697219422662901e-06)
- np.float64(1.4923023027075558e-05) np.float64(9.905285714040504e-09)]</t>
+          <t>[np.float64(0.012341580837927581) np.float64(5.6858646996522975e-06)
+ np.float64(1.4937649253740725e-05) np.float64(9.905211360786335e-09)]</t>
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>1.569243491589145e-05</v>
+        <v>1.569321958974817e-05</v>
       </c>
       <c r="AC92" t="n">
-        <v>213.4387778542172</v>
+        <v>180.8996099212341</v>
       </c>
       <c r="AD92" t="n">
-        <v>6.857432558787358e-05</v>
+        <v>0.002884160948863861</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.01229462972545326</v>
+        <v>0.01234158083792758</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.2753660056359681</v>
+        <v>0.09358421312299241</v>
       </c>
       <c r="AG92" t="n">
-        <v>1.51874395841361e-05</v>
+        <v>1.51858595908486e-05</v>
       </c>
       <c r="AH92" t="n">
-        <v>5.697219422662901e-06</v>
+        <v>5.685864699652298e-06</v>
       </c>
       <c r="AI92" t="n">
-        <v>0.08480686002822056</v>
+        <v>0.08500407758659488</v>
       </c>
       <c r="AJ92" t="n">
-        <v>9.205125553275202e-06</v>
+        <v>9.194983901700951e-06</v>
       </c>
       <c r="AK92" t="n">
-        <v>1.492302302707556e-05</v>
+        <v>1.493764925374072e-05</v>
       </c>
       <c r="AL92" t="n">
-        <v>0.1151048923061806</v>
+        <v>0.1157193672914706</v>
       </c>
       <c r="AM92" t="n">
-        <v>1.580273197206746e-10</v>
+        <v>1.58023205589174e-10</v>
       </c>
       <c r="AN92" t="n">
-        <v>9.905285714040504e-09</v>
+        <v>9.905211360786335e-09</v>
       </c>
       <c r="AO92" t="n">
-        <v>0.1646239291366808</v>
+        <v>0.1646226688681077</v>
       </c>
     </row>
     <row r="93">
@@ -12499,128 +12499,128 @@
         <v>1.242833333333334</v>
       </c>
       <c r="D93" t="n">
-        <v>4.294656923883182</v>
+        <v>3.886089304558081</v>
       </c>
       <c r="E93" t="n">
-        <v>8091.480524752697</v>
+        <v>6467.350863982348</v>
       </c>
       <c r="F93" t="n">
-        <v>4697.398685352446</v>
+        <v>3445.10197325002</v>
       </c>
       <c r="G93" t="n">
-        <v>1797.193596195393</v>
+        <v>1627.150473974721</v>
       </c>
       <c r="H93" t="n">
-        <v>1172.07822402424</v>
+        <v>972.9793344011829</v>
       </c>
       <c r="I93" t="n">
-        <v>1374.056857190178</v>
+        <v>1176.027568962191</v>
       </c>
       <c r="J93" t="n">
         <v>60</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[0.27274088 0.08240353 0.1140283  0.16411018]</t>
+          <t>[0.09254764 0.08262413 0.11468486 0.16410714]</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0.9533911657340536</v>
+        <v>0.6809243202524488</v>
       </c>
       <c r="M93" t="n">
-        <v>15.78504037224008</v>
+        <v>13.4233414761265</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0.001276063366941219</v>
+        <v>0.0004933679252373827</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1612346451827354</v>
+        <v>0.113439230125719</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.5777242684951586</v>
+        <v>0.4519820236196644</v>
       </c>
       <c r="R93" t="n">
-        <v>12.89943910394901</v>
+        <v>10.61375443829245</v>
       </c>
       <c r="S93" t="n">
-        <v>120.8966609799427</v>
+        <v>126.9565805930563</v>
       </c>
       <c r="T93" t="n">
-        <v>2.120614862178126</v>
+        <v>1.370989745519283</v>
       </c>
       <c r="U93" t="n">
-        <v>64.35436198932851</v>
+        <v>47.19789703352529</v>
       </c>
       <c r="V93" t="n">
-        <v>79.87648105839732</v>
+        <v>72.49382711782532</v>
       </c>
       <c r="W93" t="n">
-        <v>26.00147459397487</v>
+        <v>21.63395274303448</v>
       </c>
       <c r="X93" t="n">
-        <v>30.49691973328152</v>
+        <v>26.16321347099504</v>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>[6.81852201 1.23605298 2.28056593 9.84661064]</t>
+          <t>[2.31369108 1.23936199 2.29369729 9.84642812]</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>[np.float64(6.038808715363503e-05) np.float64(1.547997180596279e-05)
- np.float64(9.461047684526119e-06) np.float64(1.5274583031955453e-10)]</t>
+          <t>[np.float64(0.002682362498119402) np.float64(1.5478932744882355e-05)
+ np.float64(9.451190744695947e-06) np.float64(1.5274172463824945e-10)]</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>[np.float64(0.012049124687867013) np.float64(5.771015430830486e-06)
- np.float64(1.4993233190732195e-05) np.float64(9.879560483546789e-09)]</t>
+          <t>[np.float64(0.012354011554901952) np.float64(5.759767421728545e-06)
+ np.float64(1.5008658924338215e-05) np.float64(9.879378582787128e-09)]</t>
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>1.60025021148398e-05</v>
+        <v>1.600436217924949e-05</v>
       </c>
       <c r="AC93" t="n">
-        <v>216.1167059554665</v>
+        <v>182.8099802256361</v>
       </c>
       <c r="AD93" t="n">
-        <v>6.038808715363503e-05</v>
+        <v>0.002682362498119402</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.01204912468786701</v>
+        <v>0.01235401155490195</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.2727408804839006</v>
+        <v>0.0925476431673079</v>
       </c>
       <c r="AG93" t="n">
-        <v>1.547997180596279e-05</v>
+        <v>1.547893274488236e-05</v>
       </c>
       <c r="AH93" t="n">
-        <v>5.771015430830486e-06</v>
+        <v>5.759767421728545e-06</v>
       </c>
       <c r="AI93" t="n">
-        <v>0.08240353182202283</v>
+        <v>0.08262413236973218</v>
       </c>
       <c r="AJ93" t="n">
-        <v>9.461047684526119e-06</v>
+        <v>9.451190744695947e-06</v>
       </c>
       <c r="AK93" t="n">
-        <v>1.499323319073219e-05</v>
+        <v>1.500865892433821e-05</v>
       </c>
       <c r="AL93" t="n">
-        <v>0.1140282963529414</v>
+        <v>0.1146848642793447</v>
       </c>
       <c r="AM93" t="n">
-        <v>1.527458303195545e-10</v>
+        <v>1.527417246382495e-10</v>
       </c>
       <c r="AN93" t="n">
-        <v>9.879560483546789e-09</v>
+        <v>9.879378582787128e-09</v>
       </c>
       <c r="AO93" t="n">
-        <v>0.1641101773923737</v>
+        <v>0.1641071353374264</v>
       </c>
     </row>
     <row r="94">
@@ -12634,128 +12634,128 @@
         <v>1.250642857142857</v>
       </c>
       <c r="D94" t="n">
-        <v>4.265898633843129</v>
+        <v>3.859376592831316</v>
       </c>
       <c r="E94" t="n">
-        <v>8215.641381911701</v>
+        <v>6547.621574612491</v>
       </c>
       <c r="F94" t="n">
-        <v>4807.189992642915</v>
+        <v>3516.082686969901</v>
       </c>
       <c r="G94" t="n">
-        <v>1783.894459249197</v>
+        <v>1614.900832779112</v>
       </c>
       <c r="H94" t="n">
-        <v>1181.303375711155</v>
+        <v>978.9434482010025</v>
       </c>
       <c r="I94" t="n">
-        <v>1382.70151229395</v>
+        <v>1181.616388371222</v>
       </c>
       <c r="J94" t="n">
         <v>60</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[0.26987122 0.08016302 0.11269335 0.16360247]</t>
+          <t>[0.09157626 0.08040502 0.11339561 0.16359753]</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>0.8949225898892946</v>
+        <v>0.5811860804103472</v>
       </c>
       <c r="M94" t="n">
-        <v>16.00755277134258</v>
+        <v>13.4835064518668</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0.001642910854578436</v>
+        <v>0.0006716512546886794</v>
       </c>
       <c r="P94" t="n">
-        <v>0.1994057860905183</v>
+        <v>0.1275364473302327</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.5790003318620998</v>
+        <v>0.4524753915449019</v>
       </c>
       <c r="R94" t="n">
-        <v>13.06067374913174</v>
+        <v>10.72719366841817</v>
       </c>
       <c r="S94" t="n">
-        <v>118.9874747804328</v>
+        <v>126.944783211513</v>
       </c>
       <c r="T94" t="n">
-        <v>3.331432263093043</v>
+        <v>1.999902852554501</v>
       </c>
       <c r="U94" t="n">
-        <v>65.85850289920795</v>
+        <v>48.17033281148765</v>
       </c>
       <c r="V94" t="n">
-        <v>79.28200772872187</v>
+        <v>71.94552316643164</v>
       </c>
       <c r="W94" t="n">
-        <v>26.20344007109384</v>
+        <v>21.76452458944445</v>
       </c>
       <c r="X94" t="n">
-        <v>30.68617644708046</v>
+        <v>26.28556902858202</v>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>[6.74678054 1.2024453  2.25386698 9.81614803]</t>
+          <t>[2.28940644 1.20607536 2.26791222 9.81585185]</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>[np.float64(5.7763855462308415e-05) np.float64(1.583241972856997e-05)
- np.float64(9.771132241995878e-06) np.float64(1.4460706880544367e-10)]</t>
+          <t>[np.float64(0.0025280276599694796) np.float64(1.5832167412251868e-05)
+ np.float64(9.761339803005638e-06) np.float64(1.446034473331808e-10)]</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>[np.float64(0.011858822344352439) np.float64(5.884298782279041e-06)
- np.float64(1.511095229214855e-05) np.float64(9.857036296374744e-09)]</t>
+          <t>[np.float64(0.012373664549060139) np.float64(5.873465445739046e-06)
+ np.float64(1.5127911942652779e-05) np.float64(9.856739508588105e-09)]</t>
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1.630913160170136e-05</v>
+        <v>1.63121356942904e-05</v>
       </c>
       <c r="AC94" t="n">
-        <v>218.2373208176446</v>
+        <v>184.1809699711553</v>
       </c>
       <c r="AD94" t="n">
-        <v>5.776385546230842e-05</v>
+        <v>0.00252802765996948</v>
       </c>
       <c r="AE94" t="n">
-        <v>0.01185882234435244</v>
+        <v>0.01237366454906014</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.2698712214327694</v>
+        <v>0.09157625757495697</v>
       </c>
       <c r="AG94" t="n">
-        <v>1.583241972856997e-05</v>
+        <v>1.583216741225187e-05</v>
       </c>
       <c r="AH94" t="n">
-        <v>5.884298782279041e-06</v>
+        <v>5.873465445739046e-06</v>
       </c>
       <c r="AI94" t="n">
-        <v>0.08016302026705065</v>
+        <v>0.08040502368852256</v>
       </c>
       <c r="AJ94" t="n">
-        <v>9.771132241995878e-06</v>
+        <v>9.761339803005638e-06</v>
       </c>
       <c r="AK94" t="n">
-        <v>1.511095229214855e-05</v>
+        <v>1.512791194265278e-05</v>
       </c>
       <c r="AL94" t="n">
-        <v>0.1126933489950294</v>
+        <v>0.113395611212885</v>
       </c>
       <c r="AM94" t="n">
-        <v>1.446070688054437e-10</v>
+        <v>1.446034473331808e-10</v>
       </c>
       <c r="AN94" t="n">
-        <v>9.857036296374744e-09</v>
+        <v>9.856739508588105e-09</v>
       </c>
       <c r="AO94" t="n">
-        <v>0.1636024671958975</v>
+        <v>0.1635975308925123</v>
       </c>
     </row>
     <row r="95">
@@ -12769,128 +12769,128 @@
         <v>1.256476190476191</v>
       </c>
       <c r="D95" t="n">
-        <v>4.244028686820463</v>
+        <v>3.824630145545524</v>
       </c>
       <c r="E95" t="n">
-        <v>8412.97952579286</v>
+        <v>6666.086272585764</v>
       </c>
       <c r="F95" t="n">
-        <v>4982.922428885428</v>
+        <v>3621.57719286793</v>
       </c>
       <c r="G95" t="n">
-        <v>1773.936512953929</v>
+        <v>1599.333901096845</v>
       </c>
       <c r="H95" t="n">
-        <v>1195.040929641624</v>
+        <v>987.1902835327705</v>
       </c>
       <c r="I95" t="n">
-        <v>1395.466086136615</v>
+        <v>1189.279130886626</v>
       </c>
       <c r="J95" t="n">
         <v>60</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[0.26609185 0.07805856 0.11044632 0.16310152]</t>
+          <t>[0.09065488 0.0783211  0.11120878 0.16309456]</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0.7658174470491411</v>
+        <v>0.4233850623827159</v>
       </c>
       <c r="M95" t="n">
-        <v>16.16903545624403</v>
+        <v>13.52534568101016</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.002138279185377207</v>
+        <v>0.000928256812689672</v>
       </c>
       <c r="P95" t="n">
-        <v>0.24547312057015</v>
+        <v>0.1335409589624567</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.5806432427166782</v>
+        <v>0.4531470427995905</v>
       </c>
       <c r="R95" t="n">
-        <v>13.26007953522226</v>
+        <v>10.85473011574841</v>
       </c>
       <c r="S95" t="n">
-        <v>115.8141339406551</v>
+        <v>126.7530825678737</v>
       </c>
       <c r="T95" t="n">
-        <v>3.73572211138033</v>
+        <v>1.848144581768043</v>
       </c>
       <c r="U95" t="n">
-        <v>68.26603727573037</v>
+        <v>49.61560754229065</v>
       </c>
       <c r="V95" t="n">
-        <v>78.83396494052563</v>
+        <v>71.24820124511282</v>
       </c>
       <c r="W95" t="n">
-        <v>26.50392698511119</v>
+        <v>21.94491085848438</v>
       </c>
       <c r="X95" t="n">
-        <v>30.9653809853951</v>
+        <v>26.45317920598456</v>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>[6.65229636 1.17087845 2.20892636 9.78609099]</t>
+          <t>[2.26637194 1.17481649 2.22417553 9.78567382]</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>[np.float64(5.3390912776274346e-05) np.float64(1.609871867372018e-05)
- np.float64(1.001442721814951e-05) np.float64(1.403329106905113e-10)]</t>
+          <t>[np.float64(0.002320327365110641) np.float64(1.6099197845659367e-05)
+ np.float64(1.00050028599522e-05) np.float64(1.4032957243824223e-10)]</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>[np.float64(0.011542748046678885) np.float64(5.948218466469039e-06)
- np.float64(1.5174623173603968e-05) np.float64(9.83104497753849e-09)]</t>
+          <t>[np.float64(0.012381205667176466) np.float64(5.937751554555101e-06)
+ np.float64(1.51923751234099e-05) np.float64(9.830626074581432e-09)]</t>
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>1.661178637121323e-05</v>
+        <v>1.661600878330653e-05</v>
       </c>
       <c r="AC95" t="n">
-        <v>221.5687530807376</v>
+        <v>186.1808728237098</v>
       </c>
       <c r="AD95" t="n">
-        <v>5.339091277627435e-05</v>
+        <v>0.002320327365110641</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.01154274804667888</v>
+        <v>0.01238120566717647</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.2660918544485578</v>
+        <v>0.09065487743960185</v>
       </c>
       <c r="AG95" t="n">
-        <v>1.609871867372018e-05</v>
+        <v>1.609919784565937e-05</v>
       </c>
       <c r="AH95" t="n">
-        <v>5.948218466469039e-06</v>
+        <v>5.937751554555101e-06</v>
       </c>
       <c r="AI95" t="n">
-        <v>0.07805856310603715</v>
+        <v>0.0783210994596157</v>
       </c>
       <c r="AJ95" t="n">
-        <v>1.001442721814951e-05</v>
+        <v>1.00050028599522e-05</v>
       </c>
       <c r="AK95" t="n">
-        <v>1.517462317360397e-05</v>
+        <v>1.51923751234099e-05</v>
       </c>
       <c r="AL95" t="n">
-        <v>0.1104463178482862</v>
+        <v>0.1112087764000584</v>
       </c>
       <c r="AM95" t="n">
-        <v>1.403329106905113e-10</v>
+        <v>1.403295724382422e-10</v>
       </c>
       <c r="AN95" t="n">
-        <v>9.831044977538489e-09</v>
+        <v>9.830626074581432e-09</v>
       </c>
       <c r="AO95" t="n">
-        <v>0.1631015164960685</v>
+        <v>0.1630945636339972</v>
       </c>
     </row>
     <row r="96">
@@ -12904,128 +12904,128 @@
         <v>1.261928571428572</v>
       </c>
       <c r="D96" t="n">
-        <v>4.225069990347483</v>
+        <v>3.771639416892427</v>
       </c>
       <c r="E96" t="n">
-        <v>8636.20594348669</v>
+        <v>6776.521332279191</v>
       </c>
       <c r="F96" t="n">
-        <v>5182.750466073178</v>
+        <v>3720.436554780539</v>
       </c>
       <c r="G96" t="n">
-        <v>1765.213557600476</v>
+        <v>1575.942269259912</v>
       </c>
       <c r="H96" t="n">
-        <v>1209.799384800011</v>
+        <v>994.4916186222159</v>
       </c>
       <c r="I96" t="n">
-        <v>1409.087998000602</v>
+        <v>1196.018192801337</v>
       </c>
       <c r="J96" t="n">
         <v>60</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[0.26066403 0.07594828 0.10794874 0.16259635]</t>
+          <t>[0.08972479 0.07623237 0.10873622 0.16258731]</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>0.6857245844143163</v>
+        <v>0.3256641440202349</v>
       </c>
       <c r="M96" t="n">
-        <v>16.32069202540849</v>
+        <v>13.56298132944363</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0.00283932394606037</v>
+        <v>0.001322446129439375</v>
       </c>
       <c r="P96" t="n">
-        <v>0.2995693102307963</v>
+        <v>0.1397415477322127</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.5827815219020555</v>
+        <v>0.4540752996122802</v>
       </c>
       <c r="R96" t="n">
-        <v>13.50555265579241</v>
+        <v>10.98827107471086</v>
       </c>
       <c r="S96" t="n">
-        <v>112.2098773262937</v>
+        <v>126.5463112940279</v>
       </c>
       <c r="T96" t="n">
-        <v>3.431552771073603</v>
+        <v>1.343941366059993</v>
       </c>
       <c r="U96" t="n">
-        <v>71.00368138520255</v>
+        <v>50.9699808004934</v>
       </c>
       <c r="V96" t="n">
-        <v>78.44007327209742</v>
+        <v>70.20258289143676</v>
       </c>
       <c r="W96" t="n">
-        <v>26.82652924528404</v>
+        <v>22.10450935147407</v>
       </c>
       <c r="X96" t="n">
-        <v>31.2631397621801</v>
+        <v>26.6004870767474</v>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>[6.51660084 1.13922418 2.15897485 9.75578088]</t>
+          <t>[2.24311984 1.14348561 2.17472434 9.75523877]</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>[np.float64(5.0234262019069704e-05) np.float64(1.634368541738495e-05)
- np.float64(1.02456421003426e-05) np.float64(1.3677158147003226e-10)]</t>
+          <t>[np.float64(0.0021298466167909797) np.float64(1.6345478560516112e-05)
+ np.float64(1.0236711016082277e-05) np.float64(1.3676858401153795e-10)]</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>[np.float64(0.011183313856443933) np.float64(6.002279328018841e-06)
- np.float64(1.5228330411937096e-05) np.float64(9.804076953076167e-09)]</t>
+          <t>[np.float64(0.012384872420779626) np.float64(5.992256402358343e-06)
+ np.float64(1.5246727609384259e-05) np.float64(9.803531875299276e-09)]</t>
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>1.691707990804124e-05</v>
+        <v>1.692256066039513e-05</v>
       </c>
       <c r="AC96" t="n">
-        <v>225.304475192118</v>
+        <v>188.0290174054779</v>
       </c>
       <c r="AD96" t="n">
-        <v>5.02342620190697e-05</v>
+        <v>0.00212984661679098</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.01118331385644393</v>
+        <v>0.01238487242077963</v>
       </c>
       <c r="AF96" t="n">
-        <v>0.2606640335593121</v>
+        <v>0.08972479368352397</v>
       </c>
       <c r="AG96" t="n">
-        <v>1.634368541738495e-05</v>
+        <v>1.634547856051611e-05</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.002279328018841e-06</v>
+        <v>5.992256402358343e-06</v>
       </c>
       <c r="AI96" t="n">
-        <v>0.07594827897406323</v>
+        <v>0.07623237379418023</v>
       </c>
       <c r="AJ96" t="n">
-        <v>1.02456421003426e-05</v>
+        <v>1.023671101608228e-05</v>
       </c>
       <c r="AK96" t="n">
-        <v>1.52283304119371e-05</v>
+        <v>1.524672760938426e-05</v>
       </c>
       <c r="AL96" t="n">
-        <v>0.1079487427403645</v>
+        <v>0.1087362168328558</v>
       </c>
       <c r="AM96" t="n">
-        <v>1.367715814700323e-10</v>
+        <v>1.367685840115379e-10</v>
       </c>
       <c r="AN96" t="n">
-        <v>9.804076953076167e-09</v>
+        <v>9.803531875299276e-09</v>
       </c>
       <c r="AO96" t="n">
-        <v>0.1625963479396295</v>
+        <v>0.1625873128748702</v>
       </c>
     </row>
     <row r="97">
@@ -13039,128 +13039,128 @@
         <v>1.268166666666667</v>
       </c>
       <c r="D97" t="n">
-        <v>4.204950867289903</v>
+        <v>3.706013649931606</v>
       </c>
       <c r="E97" t="n">
-        <v>8842.941778279968</v>
+        <v>6856.950020066162</v>
       </c>
       <c r="F97" t="n">
-        <v>5368.718209576938</v>
+        <v>3792.785606388682</v>
       </c>
       <c r="G97" t="n">
-        <v>1756.026021066046</v>
+        <v>1547.086105528474</v>
       </c>
       <c r="H97" t="n">
-        <v>1222.791255332234</v>
+        <v>999.545987159</v>
       </c>
       <c r="I97" t="n">
-        <v>1421.000882592501</v>
+        <v>1201.061445328786</v>
       </c>
       <c r="J97" t="n">
         <v>60</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[0.25326937 0.07375307 0.10520404 0.16210102]</t>
+          <t>[0.08874991 0.07406138 0.10602228 0.16208984]</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0.6537003318861089</v>
+        <v>0.286375412152336</v>
       </c>
       <c r="M97" t="n">
-        <v>16.49267610891421</v>
+        <v>13.60373637888279</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0.003172056605774499</v>
+        <v>0.001591619368738181</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3244437351758605</v>
+        <v>0.1392567500174565</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.5856208458481158</v>
+        <v>0.4553977457417195</v>
       </c>
       <c r="R97" t="n">
-        <v>13.80512196602321</v>
+        <v>11.12801262244307</v>
       </c>
       <c r="S97" t="n">
-        <v>108.9002532208682</v>
+        <v>126.3959320606633</v>
       </c>
       <c r="T97" t="n">
-        <v>3.070893021565837</v>
+        <v>1.002368885004382</v>
       </c>
       <c r="U97" t="n">
-        <v>73.55143947120406</v>
+        <v>51.96116280752496</v>
       </c>
       <c r="V97" t="n">
-        <v>78.02600758590646</v>
+        <v>68.91455435038777</v>
       </c>
       <c r="W97" t="n">
-        <v>27.11033897703734</v>
+        <v>22.21492293472593</v>
       </c>
       <c r="X97" t="n">
-        <v>31.52337885339095</v>
+        <v>26.71065782879034</v>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>[6.33173429 1.10629608 2.10408079 9.72606096]</t>
+          <t>[2.21874777 1.11092072 2.12044562 9.72539046]</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>[np.float64(4.950083614773322e-05) np.float64(1.659925377818173e-05)
- np.float64(1.0494038730706098e-05) np.float64(1.322211109264497e-10)]</t>
+          <t>[np.float64(0.0019880222491015734) np.float64(1.660261675552724e-05)
+ np.float64(1.0485557225519628e-05) np.float64(1.3221883954613762e-10)]</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>[np.float64(0.010852710341890384) np.float64(6.0704276979098925e-06)
- np.float64(1.5299733359605722e-05) np.float64(9.778681099752263e-09)]</t>
+          <t>[np.float64(0.01238828794233955) np.float64(6.060976692280628e-06)
+ np.float64(1.531904824626324e-05) np.float64(9.778005925821727e-09)]</t>
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>1.721654314671612e-05</v>
+        <v>1.722331759982463e-05</v>
       </c>
       <c r="AC97" t="n">
-        <v>228.7360279631916</v>
+        <v>189.3729587715379</v>
       </c>
       <c r="AD97" t="n">
-        <v>4.950083614773322e-05</v>
+        <v>0.001988022249101573</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.01085271034189038</v>
+        <v>0.01238828794233955</v>
       </c>
       <c r="AF97" t="n">
-        <v>0.2532693714431389</v>
+        <v>0.08874991079267724</v>
       </c>
       <c r="AG97" t="n">
-        <v>1.659925377818173e-05</v>
+        <v>1.660261675552724e-05</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.070427697909892e-06</v>
+        <v>6.060976692280628e-06</v>
       </c>
       <c r="AI97" t="n">
-        <v>0.07375307188460764</v>
+        <v>0.07406138111187338</v>
       </c>
       <c r="AJ97" t="n">
-        <v>1.04940387307061e-05</v>
+        <v>1.048555722551963e-05</v>
       </c>
       <c r="AK97" t="n">
-        <v>1.529973335960572e-05</v>
+        <v>1.531904824626324e-05</v>
       </c>
       <c r="AL97" t="n">
-        <v>0.1052040397249428</v>
+        <v>0.1060222807738194</v>
       </c>
       <c r="AM97" t="n">
-        <v>1.322211109264497e-10</v>
+        <v>1.322188395461376e-10</v>
       </c>
       <c r="AN97" t="n">
-        <v>9.778681099752263e-09</v>
+        <v>9.778005925821727e-09</v>
       </c>
       <c r="AO97" t="n">
-        <v>0.1621010160292585</v>
+        <v>0.1620898410386177</v>
       </c>
     </row>
     <row r="98">
@@ -13174,128 +13174,128 @@
         <v>1.275309523809524</v>
       </c>
       <c r="D98" t="n">
-        <v>4.179543324291594</v>
+        <v>3.634529499643583</v>
       </c>
       <c r="E98" t="n">
-        <v>9029.695304534136</v>
+        <v>6916.94451928245</v>
       </c>
       <c r="F98" t="n">
-        <v>5537.642999191376</v>
+        <v>3847.052630746454</v>
       </c>
       <c r="G98" t="n">
-        <v>1744.57428745532</v>
+        <v>1516.146744950628</v>
       </c>
       <c r="H98" t="n">
-        <v>1233.828388733855</v>
+        <v>1003.091662062683</v>
       </c>
       <c r="I98" t="n">
-        <v>1431.041002893608</v>
+        <v>1205.012710744237</v>
       </c>
       <c r="J98" t="n">
         <v>60</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[0.24487051 0.07157908 0.10244955 0.16160194]</t>
+          <t>[0.08778085 0.07191423 0.1033051  0.16158866]</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.8796150145043499</v>
+        <v>0.5554084936573197</v>
       </c>
       <c r="M98" t="n">
-        <v>16.69148656519058</v>
+        <v>13.64850912862628</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.001151609877020823</v>
+        <v>0.000620433113526736</v>
       </c>
       <c r="P98" t="n">
-        <v>0.1713256677156939</v>
+        <v>0.105693710676039</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.5887929024538903</v>
+        <v>0.4569893651104577</v>
       </c>
       <c r="R98" t="n">
-        <v>14.12956570119907</v>
+        <v>11.26726937246053</v>
       </c>
       <c r="S98" t="n">
-        <v>105.9554719801329</v>
+        <v>126.2940783095149</v>
       </c>
       <c r="T98" t="n">
-        <v>2.53975392785687</v>
+        <v>1.443578471180492</v>
       </c>
       <c r="U98" t="n">
-        <v>75.86570908892186</v>
+        <v>52.70462104122644</v>
       </c>
       <c r="V98" t="n">
-        <v>77.51191190767543</v>
+        <v>67.5344363048991</v>
       </c>
       <c r="W98" t="n">
-        <v>27.35127500038915</v>
+        <v>22.29232354050878</v>
       </c>
       <c r="X98" t="n">
-        <v>31.74255049618066</v>
+        <v>26.79691230644905</v>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>[6.12176275 1.07368619 2.04899104 9.69611635]</t>
+          <t>[2.19452127 1.07871352 2.06610201 9.69531939]</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>[np.float64(5.097814976375776e-05) np.float64(1.686945998378448e-05)
- np.float64(1.0766293279359738e-05) np.float64(1.265008167746658e-10)]</t>
+          <t>[np.float64(0.0018782063866738057) np.float64(1.6874742657049923e-05)
+ np.float64(1.075823717161305e-05) np.float64(1.2649980561896306e-10)]</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>[np.float64(0.010558004955780242) np.float64(6.1561224563100144e-06)
- np.float64(1.5392573202127108e-05) np.float64(9.754214075304946e-09)]</t>
+          <t>[np.float64(0.012392568624532314) np.float64(6.147418469663439e-06)
+ np.float64(1.541314799441749e-05) np.float64(9.753410157673229e-09)]</t>
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>1.751841633270713e-05</v>
+        <v>1.752646562058135e-05</v>
       </c>
       <c r="AC98" t="n">
-        <v>231.8069209847574</v>
+        <v>190.3753276565423</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.097814976375776e-05</v>
+        <v>0.001878206386673806</v>
       </c>
       <c r="AE98" t="n">
-        <v>0.01055800495578024</v>
+        <v>0.01239256862453231</v>
       </c>
       <c r="AF98" t="n">
-        <v>0.2448705099209772</v>
+        <v>0.08778085081986914</v>
       </c>
       <c r="AG98" t="n">
-        <v>1.686945998378448e-05</v>
+        <v>1.687474265704992e-05</v>
       </c>
       <c r="AH98" t="n">
-        <v>6.156122456310014e-06</v>
+        <v>6.147418469663439e-06</v>
       </c>
       <c r="AI98" t="n">
-        <v>0.07157907916688715</v>
+        <v>0.07191423477414748</v>
       </c>
       <c r="AJ98" t="n">
-        <v>1.076629327935974e-05</v>
+        <v>1.075823717161305e-05</v>
       </c>
       <c r="AK98" t="n">
-        <v>1.539257320212711e-05</v>
+        <v>1.541314799441749e-05</v>
       </c>
       <c r="AL98" t="n">
-        <v>0.1024495520495468</v>
+        <v>0.1033051007396044</v>
       </c>
       <c r="AM98" t="n">
-        <v>1.265008167746658e-10</v>
+        <v>1.264998056189631e-10</v>
       </c>
       <c r="AN98" t="n">
-        <v>9.754214075304946e-09</v>
+        <v>9.753410157673229e-09</v>
       </c>
       <c r="AO98" t="n">
-        <v>0.1616019392050274</v>
+        <v>0.1615886564666876</v>
       </c>
     </row>
     <row r="99">
@@ -13309,128 +13309,128 @@
         <v>1.2815</v>
       </c>
       <c r="D99" t="n">
-        <v>4.156008655478691</v>
+        <v>3.594570348212387</v>
       </c>
       <c r="E99" t="n">
-        <v>9185.824292160916</v>
+        <v>7004.021464797399</v>
       </c>
       <c r="F99" t="n">
-        <v>5679.759038442967</v>
+        <v>3926.314213075375</v>
       </c>
       <c r="G99" t="n">
-        <v>1734.008329735006</v>
+        <v>1498.967068610847</v>
       </c>
       <c r="H99" t="n">
-        <v>1242.386487669912</v>
+        <v>1007.864722633266</v>
       </c>
       <c r="I99" t="n">
-        <v>1438.749604825627</v>
+        <v>1210.554241877049</v>
       </c>
       <c r="J99" t="n">
         <v>60</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[0.24157822 0.06991122 0.10068472 0.16110435]</t>
+          <t>[0.08706349 0.07026678 0.10158279 0.16110162]</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>0.6774838677248479</v>
+        <v>0.3139325539476985</v>
       </c>
       <c r="M99" t="n">
-        <v>16.86165320773943</v>
+        <v>13.6848259949705</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0.002280313036925901</v>
+        <v>0.001286003946232541</v>
       </c>
       <c r="P99" t="n">
-        <v>0.2537428428228689</v>
+        <v>0.1147263388441035</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.5899445123309111</v>
+        <v>0.4576097982239845</v>
       </c>
       <c r="R99" t="n">
-        <v>14.30089136891476</v>
+        <v>11.37296308313657</v>
       </c>
       <c r="S99" t="n">
-        <v>103.5614913976118</v>
+        <v>126.1648264513573</v>
       </c>
       <c r="T99" t="n">
-        <v>3.180545930818929</v>
+        <v>1.172482573486752</v>
       </c>
       <c r="U99" t="n">
-        <v>77.81269882666865</v>
+        <v>53.79050471913266</v>
       </c>
       <c r="V99" t="n">
-        <v>77.03806243622014</v>
+        <v>66.76639494516839</v>
       </c>
       <c r="W99" t="n">
-        <v>27.53794191109342</v>
+        <v>22.39643223076491</v>
       </c>
       <c r="X99" t="n">
-        <v>31.91068841083323</v>
+        <v>26.91778266619393</v>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>[6.03945553 1.04866828 2.01369444 9.6662608 ]</t>
+          <t>[2.1765873  1.05400176 2.03165585 9.66609715]</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>[np.float64(5.083274395245628e-05) np.float64(1.7097430902041824e-05)
- np.float64(1.1004317339080046e-05) np.float64(1.2244923887867492e-10)]</t>
+          <t>[np.float64(0.0017279394313494333) np.float64(1.7104540392824107e-05)
+ np.float64(1.0997674115953042e-05) np.float64(1.2245076250224333e-10)]</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>[np.float64(0.010318652310729651) np.float64(6.218894843472588e-06)
- np.float64(1.5459163816559983e-05) np.float64(9.72815782006194e-09)]</t>
+          <t>[np.float64(0.012397947920362019) np.float64(6.2105209907545795e-06)
+ np.float64(1.5480896765357794e-05) np.float64(9.727990034639437e-09)]</t>
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>1.781949466409709e-05</v>
+        <v>1.782115728208647e-05</v>
       </c>
       <c r="AC99" t="n">
-        <v>234.3466749126143</v>
+        <v>191.8189061277228</v>
       </c>
       <c r="AD99" t="n">
-        <v>5.083274395245628e-05</v>
+        <v>0.001727939431349433</v>
       </c>
       <c r="AE99" t="n">
-        <v>0.01031865231072965</v>
+        <v>0.01239794792036202</v>
       </c>
       <c r="AF99" t="n">
-        <v>0.241578221043393</v>
+        <v>0.08706349188316212</v>
       </c>
       <c r="AG99" t="n">
-        <v>1.709743090204182e-05</v>
+        <v>1.710454039282411e-05</v>
       </c>
       <c r="AH99" t="n">
-        <v>6.218894843472588e-06</v>
+        <v>6.21052099075458e-06</v>
       </c>
       <c r="AI99" t="n">
-        <v>0.06991121888600253</v>
+        <v>0.07026678369729161</v>
       </c>
       <c r="AJ99" t="n">
-        <v>1.100431733908005e-05</v>
+        <v>1.099767411595304e-05</v>
       </c>
       <c r="AK99" t="n">
-        <v>1.545916381655998e-05</v>
+        <v>1.548089676535779e-05</v>
       </c>
       <c r="AL99" t="n">
-        <v>0.1006847219323679</v>
+        <v>0.1015827926314069</v>
       </c>
       <c r="AM99" t="n">
-        <v>1.224492388786749e-10</v>
+        <v>1.224507625022433e-10</v>
       </c>
       <c r="AN99" t="n">
-        <v>9.728157820061941e-09</v>
+        <v>9.727990034639437e-09</v>
       </c>
       <c r="AO99" t="n">
-        <v>0.1611043467200897</v>
+        <v>0.1611016190991026</v>
       </c>
     </row>
     <row r="100">
@@ -13444,128 +13444,128 @@
         <v>1.288142857142857</v>
       </c>
       <c r="D100" t="n">
-        <v>4.132829982484655</v>
+        <v>3.527564327525788</v>
       </c>
       <c r="E100" t="n">
-        <v>9383.189853287624</v>
+        <v>7076.778685117721</v>
       </c>
       <c r="F100" t="n">
-        <v>5860.387999986129</v>
+        <v>3992.901621112534</v>
       </c>
       <c r="G100" t="n">
-        <v>1723.882179349805</v>
+        <v>1470.567211681292</v>
       </c>
       <c r="H100" t="n">
-        <v>1252.471867843487</v>
+        <v>1011.582616591635</v>
       </c>
       <c r="I100" t="n">
-        <v>1447.74942855403</v>
+        <v>1213.871954218115</v>
       </c>
       <c r="J100" t="n">
         <v>60</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[0.23524472 0.06816991 0.09856548 0.16061799]</t>
+          <t>[0.08628988 0.06854697 0.0995108  0.16061104]</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.8825348460509658</v>
+        <v>0.5607916845328551</v>
       </c>
       <c r="M100" t="n">
-        <v>17.04452767381886</v>
+        <v>13.72225445684326</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.001042436101179837</v>
+        <v>0.0006264787526710496</v>
       </c>
       <c r="P100" t="n">
-        <v>0.1508879309606217</v>
+        <v>0.09327956185725854</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.5922248253678369</v>
+        <v>0.458895802170217</v>
       </c>
       <c r="R100" t="n">
-        <v>14.55463421173763</v>
+        <v>11.48768942198067</v>
       </c>
       <c r="S100" t="n">
-        <v>100.5121545920905</v>
+        <v>126.0342337875189</v>
       </c>
       <c r="T100" t="n">
-        <v>2.183300800394216</v>
+        <v>1.222004482484722</v>
       </c>
       <c r="U100" t="n">
-        <v>80.28731559980997</v>
+        <v>54.70275220924174</v>
       </c>
       <c r="V100" t="n">
-        <v>76.58262518030222</v>
+        <v>65.49909269287748</v>
       </c>
       <c r="W100" t="n">
-        <v>27.7577653787017</v>
+        <v>22.477468376955</v>
       </c>
       <c r="X100" t="n">
-        <v>32.10685081877345</v>
+        <v>26.9900963538079</v>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>[5.88111809 1.02254867 1.97130952 9.63707961]</t>
+          <t>[2.1572471  1.02820448 1.99021596 9.63666217]</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>[np.float64(5.168615093297084e-05) np.float64(1.7326863564210913e-05)
- np.float64(1.1250215015629718e-05) np.float64(1.1796511860111176e-10)]</t>
+          <t>[np.float64(0.0016042412068798338) np.float64(1.733602889019472e-05)
+ np.float64(1.1245092734564746e-05) np.float64(1.179663623833812e-10)]</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>[np.float64(0.010013621576731606) np.float64(6.290112885539012e-06)
- np.float64(1.5535486392406772e-05) np.float64(9.703202959101204e-09)]</t>
+          <t>[np.float64(0.012400075228145893) np.float64(6.2821623504262555e-06)
+ np.float64(1.555860630311736e-05) np.float64(9.70277943978229e-09)]</t>
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>1.811388447648009e-05</v>
+        <v>1.811810723184657e-05</v>
       </c>
       <c r="AC100" t="n">
-        <v>237.5272208434332</v>
+        <v>192.9913887012095</v>
       </c>
       <c r="AD100" t="n">
-        <v>5.168615093297084e-05</v>
+        <v>0.001604241206879834</v>
       </c>
       <c r="AE100" t="n">
-        <v>0.01001362157673161</v>
+        <v>0.01240007522814589</v>
       </c>
       <c r="AF100" t="n">
-        <v>0.235244723529089</v>
+        <v>0.08628988384659035</v>
       </c>
       <c r="AG100" t="n">
-        <v>1.732686356421091e-05</v>
+        <v>1.733602889019472e-05</v>
       </c>
       <c r="AH100" t="n">
-        <v>6.290112885539012e-06</v>
+        <v>6.282162350426256e-06</v>
       </c>
       <c r="AI100" t="n">
-        <v>0.06816991151008417</v>
+        <v>0.06854696527785099</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1.125021501562972e-05</v>
+        <v>1.124509273456475e-05</v>
       </c>
       <c r="AK100" t="n">
-        <v>1.553548639240677e-05</v>
+        <v>1.555860630311736e-05</v>
       </c>
       <c r="AL100" t="n">
-        <v>0.09856547614176275</v>
+        <v>0.09951079796088332</v>
       </c>
       <c r="AM100" t="n">
-        <v>1.179651186011118e-10</v>
+        <v>1.179663623833812e-10</v>
       </c>
       <c r="AN100" t="n">
-        <v>9.703202959101204e-09</v>
+        <v>9.70277943978229e-09</v>
       </c>
       <c r="AO100" t="n">
-        <v>0.1606179935275678</v>
+        <v>0.1606110362295366</v>
       </c>
     </row>
     <row r="101">
@@ -13579,128 +13579,128 @@
         <v>1.295071428571429</v>
       </c>
       <c r="D101" t="n">
-        <v>4.108229140954482</v>
+        <v>3.48750601281201</v>
       </c>
       <c r="E101" t="n">
-        <v>9520.049341179307</v>
+        <v>7152.348360804575</v>
       </c>
       <c r="F101" t="n">
-        <v>5986.369113725965</v>
+        <v>4062.46458714908</v>
       </c>
       <c r="G101" t="n">
-        <v>1713.236682269208</v>
+        <v>1453.636949605242</v>
       </c>
       <c r="H101" t="n">
-        <v>1258.919904858726</v>
+        <v>1015.143027883281</v>
       </c>
       <c r="I101" t="n">
-        <v>1453.4401223136</v>
+        <v>1217.769554965604</v>
       </c>
       <c r="J101" t="n">
         <v>60</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[0.23235351 0.06667226 0.0971727  0.16012917]</t>
+          <t>[0.08564575 0.06707002 0.09820763 0.16011795]</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>0.7745520146452645</v>
+        <v>0.429242636870813</v>
       </c>
       <c r="M101" t="n">
-        <v>17.23581150039716</v>
+        <v>13.75959192473554</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.001330977260412008</v>
+        <v>0.0008324933204713579</v>
       </c>
       <c r="P101" t="n">
-        <v>0.1785994269437094</v>
+        <v>0.09615316799226228</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.5932672614690168</v>
+        <v>0.459522280922888</v>
       </c>
       <c r="R101" t="n">
-        <v>14.70552214269825</v>
+        <v>11.58096898383793</v>
       </c>
       <c r="S101" t="n">
-        <v>98.48534121940538</v>
+        <v>125.9392154068109</v>
       </c>
       <c r="T101" t="n">
-        <v>2.56850541996785</v>
+        <v>1.181064407000587</v>
       </c>
       <c r="U101" t="n">
-        <v>82.01325685804572</v>
+        <v>55.65576484394242</v>
       </c>
       <c r="V101" t="n">
-        <v>76.10587091795661</v>
+        <v>64.74261931703693</v>
       </c>
       <c r="W101" t="n">
-        <v>27.89820132202325</v>
+        <v>22.5550128633116</v>
       </c>
       <c r="X101" t="n">
-        <v>32.23079209646625</v>
+        <v>27.07498470608795</v>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>[5.8088377  1.00008383 1.94345406 9.60774993]</t>
+          <t>[2.14114373 1.00605028 1.96415263 9.60707703]</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>[np.float64(5.321580794504148e-05) np.float64(1.7552538579091343e-05)
- np.float64(1.1499087921534839e-05) np.float64(1.1331573968525734e-10)]</t>
+          <t>[np.float64(0.001475725332092689) np.float64(1.7563972644681126e-05)
+ np.float64(1.1495628333457888e-05) np.float64(1.1331718693672395e-10)]</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>[np.float64(0.009810516572706136) np.float64(6.366056070692981e-06)
- np.float64(1.561703411183718e-05) np.float64(9.678251826011705e-09)]</t>
+          <t>[np.float64(0.012405834830436622) np.float64(6.358616277465026e-06)
+ np.float64(1.5641698467941645e-05) np.float64(9.677570292244225e-09)]</t>
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>1.840988959653362e-05</v>
+        <v>1.84166904616938e-05</v>
       </c>
       <c r="AC101" t="n">
-        <v>239.7105216438274</v>
+        <v>194.2133931836943</v>
       </c>
       <c r="AD101" t="n">
-        <v>5.321580794504148e-05</v>
+        <v>0.001475725332092689</v>
       </c>
       <c r="AE101" t="n">
-        <v>0.009810516572706136</v>
+        <v>0.01240583483043662</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.2323535081758097</v>
+        <v>0.08564574924826289</v>
       </c>
       <c r="AG101" t="n">
-        <v>1.755253857909134e-05</v>
+        <v>1.756397264468113e-05</v>
       </c>
       <c r="AH101" t="n">
-        <v>6.366056070692981e-06</v>
+        <v>6.358616277465026e-06</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.06667225540518305</v>
+        <v>0.06707001859709336</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1.149908792153484e-05</v>
+        <v>1.149562833345789e-05</v>
       </c>
       <c r="AK101" t="n">
-        <v>1.561703411183718e-05</v>
+        <v>1.564169846794164e-05</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.09717270320579381</v>
+        <v>0.09820763144007141</v>
       </c>
       <c r="AM101" t="n">
-        <v>1.133157396852573e-10</v>
+        <v>1.13317186936724e-10</v>
       </c>
       <c r="AN101" t="n">
-        <v>9.678251826011705e-09</v>
+        <v>9.677570292244225e-09</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.1601291654786191</v>
+        <v>0.1601179504791342</v>
       </c>
     </row>
     <row r="102">
@@ -13714,128 +13714,128 @@
         <v>1.302261904761905</v>
       </c>
       <c r="D102" t="n">
-        <v>4.086237288961986</v>
+        <v>3.434061025934134</v>
       </c>
       <c r="E102" t="n">
-        <v>9682.769044154385</v>
+        <v>7227.171037061175</v>
       </c>
       <c r="F102" t="n">
-        <v>6137.056856949629</v>
+        <v>4131.754660944191</v>
       </c>
       <c r="G102" t="n">
-        <v>1703.691060867478</v>
+        <v>1431.065163904706</v>
       </c>
       <c r="H102" t="n">
-        <v>1265.909878385099</v>
+        <v>1018.357196276189</v>
       </c>
       <c r="I102" t="n">
-        <v>1459.529299786917</v>
+        <v>1220.569514321631</v>
       </c>
       <c r="J102" t="n">
         <v>60</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>[0.2284572  0.06526061 0.09554418 0.15964954]</t>
+          <t>[0.08502916 0.06567796 0.09662592 0.15963369]</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0.6203780379656441</v>
+        <v>0.2439311378393223</v>
       </c>
       <c r="M102" t="n">
-        <v>17.43516551905484</v>
+        <v>13.79693999963632</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0.002689932099974984</v>
+        <v>0.001768598013098174</v>
       </c>
       <c r="P102" t="n">
-        <v>0.2852901488635554</v>
+        <v>0.1087108835328665</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.5945982387294287</v>
+        <v>0.4603547742433594</v>
       </c>
       <c r="R102" t="n">
-        <v>14.88412156964196</v>
+        <v>11.6771221518302</v>
       </c>
       <c r="S102" t="n">
-        <v>96.07461125610305</v>
+        <v>125.8367910993627</v>
       </c>
       <c r="T102" t="n">
-        <v>2.588335062174666</v>
+        <v>0.5842577620291355</v>
       </c>
       <c r="U102" t="n">
-        <v>84.07767894020992</v>
+        <v>56.60503885493544</v>
       </c>
       <c r="V102" t="n">
-        <v>75.67730685114149</v>
+        <v>63.73495853135562</v>
       </c>
       <c r="W102" t="n">
-        <v>28.05031937268137</v>
+        <v>22.62496062900363</v>
       </c>
       <c r="X102" t="n">
-        <v>32.36330673387619</v>
+        <v>27.13591832158075</v>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>[5.71142999 0.97890909 1.91088351 9.57897253]</t>
+          <t>[2.12572904 0.98516934 1.93251841 9.57802122]</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>[np.float64(5.4968806494539276e-05) np.float64(1.7774987832312432e-05)
- np.float64(1.1751692358363476e-05) np.float64(1.0856937368777003e-10)]</t>
+          <t>[np.float64(0.0013515126282986484) np.float64(1.778890374508026e-05)
+ np.float64(1.1750089675406956e-05) np.float64(1.0857147565658376e-10)]</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>[np.float64(0.009569009493854025) np.float64(6.446421614754866e-06)
- np.float64(1.5704355647435066e-05) np.float64(9.653943264645111e-09)]</t>
+          <t>[np.float64(0.012410141191132406) np.float64(6.439584619804068e-06)
+ np.float64(1.5730828066467406e-05) np.float64(9.652979994080152e-09)]</t>
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>1.870043887017444e-05</v>
+        <v>1.871005055613593e-05</v>
       </c>
       <c r="AC102" t="n">
-        <v>242.2790270637953</v>
+        <v>195.3944575906948</v>
       </c>
       <c r="AD102" t="n">
-        <v>5.496880649453928e-05</v>
+        <v>0.001351512628298648</v>
       </c>
       <c r="AE102" t="n">
-        <v>0.009569009493854025</v>
+        <v>0.01241014119113241</v>
       </c>
       <c r="AF102" t="n">
-        <v>0.2284571997247231</v>
+        <v>0.08502916155510676</v>
       </c>
       <c r="AG102" t="n">
-        <v>1.777498783231243e-05</v>
+        <v>1.778890374508026e-05</v>
       </c>
       <c r="AH102" t="n">
-        <v>6.446421614754866e-06</v>
+        <v>6.439584619804068e-06</v>
       </c>
       <c r="AI102" t="n">
-        <v>0.06526060607258066</v>
+        <v>0.06567795574307708</v>
       </c>
       <c r="AJ102" t="n">
-        <v>1.175169235836348e-05</v>
+        <v>1.175008967540696e-05</v>
       </c>
       <c r="AK102" t="n">
-        <v>1.570435564743507e-05</v>
+        <v>1.573082806646741e-05</v>
       </c>
       <c r="AL102" t="n">
-        <v>0.09554417547907371</v>
+        <v>0.09662592049875476</v>
       </c>
       <c r="AM102" t="n">
-        <v>1.0856937368777e-10</v>
+        <v>1.085714756565838e-10</v>
       </c>
       <c r="AN102" t="n">
-        <v>9.653943264645111e-09</v>
+        <v>9.652979994080152e-09</v>
       </c>
       <c r="AO102" t="n">
-        <v>0.1596495421718937</v>
+        <v>0.1596336870233467</v>
       </c>
     </row>
     <row r="103">
@@ -13849,128 +13849,128 @@
         <v>1.310761904761905</v>
       </c>
       <c r="D103" t="n">
-        <v>4.052233584396936</v>
+        <v>3.359029087815286</v>
       </c>
       <c r="E103" t="n">
-        <v>9848.363375804391</v>
+        <v>7264.414773800939</v>
       </c>
       <c r="F103" t="n">
-        <v>6291.171952966325</v>
+        <v>4166.416608647816</v>
       </c>
       <c r="G103" t="n">
-        <v>1689.256134520171</v>
+        <v>1399.722961702363</v>
       </c>
       <c r="H103" t="n">
-        <v>1272.421284068908</v>
+        <v>1019.821673210135</v>
       </c>
       <c r="I103" t="n">
-        <v>1465.017051809483</v>
+        <v>1221.901104026904</v>
       </c>
       <c r="J103" t="n">
         <v>60</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>[0.22068519 0.06368606 0.09349675 0.15916433]</t>
+          <t>[0.08431009 0.06412671 0.09458689 0.15915946]</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>0.60919015380774</v>
+        <v>0.2299862260473977</v>
       </c>
       <c r="M103" t="n">
-        <v>17.6812865806897</v>
+        <v>13.84118689568746</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0.002726273849046514</v>
+        <v>0.001894413140948139</v>
       </c>
       <c r="P103" t="n">
-        <v>0.2853174351055373</v>
+        <v>0.1040222232045258</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.5972881708294038</v>
+        <v>0.4621233722564576</v>
       </c>
       <c r="R103" t="n">
-        <v>15.16941171850551</v>
+        <v>11.78583303536306</v>
       </c>
       <c r="S103" t="n">
-        <v>93.64399218718451</v>
+        <v>125.7670759113451</v>
       </c>
       <c r="T103" t="n">
-        <v>2.470419801184317</v>
+        <v>0.4804330452982837</v>
       </c>
       <c r="U103" t="n">
-        <v>86.18905575563866</v>
+        <v>57.07990753847511</v>
       </c>
       <c r="V103" t="n">
-        <v>75.03148823890447</v>
+        <v>62.33790844423338</v>
       </c>
       <c r="W103" t="n">
-        <v>28.19190562585541</v>
+        <v>22.65680472104857</v>
       </c>
       <c r="X103" t="n">
-        <v>32.48263430843591</v>
+        <v>27.16487286784769</v>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>[5.51712964 0.95529083 1.86993507 9.5498595 ]</t>
+          <t>[2.10775233 0.96190072 1.89173783 9.54956764]</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>[np.float64(5.963199864350794e-05) np.float64(1.8029665485749487e-05)
- np.float64(1.2049119544026797e-05) np.float64(1.0257286234355888e-10)]</t>
+          <t>[np.float64(0.001285094340597864) np.float64(1.8046736890512076e-05)
+ np.float64(1.2049760865196695e-05) np.float64(1.0257818186785701e-10)]</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>[np.float64(0.009324950486757654) np.float64(6.551881377231392e-06)
- np.float64(1.582035572243483e-05) np.float64(9.630530807349438e-09)]</t>
+          <t>[np.float64(0.012411323614619194) np.float64(6.545918992697693e-06)
+ np.float64(1.584933339327526e-05) np.float64(9.630230482302095e-09)]</t>
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>1.899452855657327e-05</v>
+        <v>1.899747861180377e-05</v>
       </c>
       <c r="AC103" t="n">
-        <v>244.86736212597</v>
+        <v>195.978715352724</v>
       </c>
       <c r="AD103" t="n">
-        <v>5.963199864350794e-05</v>
+        <v>0.001285094340597864</v>
       </c>
       <c r="AE103" t="n">
-        <v>0.009324950486757654</v>
+        <v>0.01241132361461919</v>
       </c>
       <c r="AF103" t="n">
-        <v>0.2206851857086542</v>
+        <v>0.08431009329874442</v>
       </c>
       <c r="AG103" t="n">
-        <v>1.802966548574949e-05</v>
+        <v>1.804673689051208e-05</v>
       </c>
       <c r="AH103" t="n">
-        <v>6.551881377231392e-06</v>
+        <v>6.545918992697693e-06</v>
       </c>
       <c r="AI103" t="n">
-        <v>0.06368605542116429</v>
+        <v>0.06412671487899785</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1.20491195440268e-05</v>
+        <v>1.204976086519669e-05</v>
       </c>
       <c r="AK103" t="n">
-        <v>1.582035572243483e-05</v>
+        <v>1.584933339327526e-05</v>
       </c>
       <c r="AL103" t="n">
-        <v>0.09349675333157145</v>
+        <v>0.09458689155329211</v>
       </c>
       <c r="AM103" t="n">
-        <v>1.025728623435589e-10</v>
+        <v>1.02578181867857e-10</v>
       </c>
       <c r="AN103" t="n">
-        <v>9.630530807349438e-09</v>
+        <v>9.630230482302095e-09</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.1591643250412185</v>
+        <v>0.1591594606355722</v>
       </c>
     </row>
     <row r="104">
@@ -13984,128 +13984,128 @@
         <v>1.319452380952381</v>
       </c>
       <c r="D104" t="n">
-        <v>4.016764522139908</v>
+        <v>3.283816598930247</v>
       </c>
       <c r="E104" t="n">
-        <v>10007.76234292355</v>
+        <v>7294.983165583952</v>
       </c>
       <c r="F104" t="n">
-        <v>6439.927623338128</v>
+        <v>4194.943905242347</v>
       </c>
       <c r="G104" t="n">
-        <v>1674.232765630411</v>
+        <v>1368.305834648997</v>
       </c>
       <c r="H104" t="n">
-        <v>1278.282611802689</v>
+        <v>1020.945716645128</v>
       </c>
       <c r="I104" t="n">
-        <v>1469.499958081615</v>
+        <v>1223.068017577971</v>
       </c>
       <c r="J104" t="n">
         <v>60</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>[0.21277021 0.0622003  0.0915228  0.15869093]</t>
+          <t>[0.08362657 0.06266522 0.09267598 0.15868133]</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0.6000465829593586</v>
+        <v>0.2186840133276028</v>
       </c>
       <c r="M104" t="n">
-        <v>17.93479237700194</v>
+        <v>13.88451769922575</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0.002748296245245476</v>
+        <v>0.002013155233722929</v>
       </c>
       <c r="P104" t="n">
-        <v>0.2826052188948004</v>
+        <v>0.09909178072356727</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.6000144446784503</v>
+        <v>0.4640177853974057</v>
       </c>
       <c r="R104" t="n">
-        <v>15.45472915361105</v>
+        <v>11.88985525856759</v>
       </c>
       <c r="S104" t="n">
-        <v>91.33870685269203</v>
+        <v>125.699470372011</v>
       </c>
       <c r="T104" t="n">
-        <v>2.554282042521748</v>
+        <v>0.5398656462959864</v>
       </c>
       <c r="U104" t="n">
-        <v>88.22700843973236</v>
+        <v>57.47073150182018</v>
       </c>
       <c r="V104" t="n">
-        <v>74.35955524417281</v>
+        <v>60.93771940514838</v>
       </c>
       <c r="W104" t="n">
-        <v>28.31923180643804</v>
+        <v>22.68122242363867</v>
       </c>
       <c r="X104" t="n">
-        <v>32.58001690832889</v>
+        <v>27.19022184205214</v>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>[5.31925533 0.93300445 1.83045603 9.52145553]</t>
+          <t>[2.09066424 0.93997823 1.85351967 9.52087975]</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>[np.float64(6.406451562601259e-05) np.float64(1.827803693382371e-05)
- np.float64(1.2348306087498652e-05) np.float64(9.678932619622892e-11)]</t>
+          <t>[np.float64(0.001229230368433672) np.float64(1.8298542285526657e-05)
+ np.float64(1.235133793151768e-05) np.float64(9.679454077713875e-11)]</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>[np.float64(0.009093550334537678) np.float64(6.659048804634052e-06)
- np.float64(1.5938426757946227e-05) np.float64(9.607607297905003e-09)]</t>
+          <t>[np.float64(0.012411409344101869) np.float64(6.654061182527613e-06)
+ np.float64(1.5969952529970456e-05) np.float64(9.607020156863702e-09)]</t>
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>1.928159901249093e-05</v>
+        <v>1.928741827709489e-05</v>
       </c>
       <c r="AC104" t="n">
-        <v>247.3377819271543</v>
+        <v>196.4591483980222</v>
       </c>
       <c r="AD104" t="n">
-        <v>6.406451562601259e-05</v>
+        <v>0.001229230368433672</v>
       </c>
       <c r="AE104" t="n">
-        <v>0.009093550334537678</v>
+        <v>0.01241140934410187</v>
       </c>
       <c r="AF104" t="n">
-        <v>0.2127702131465223</v>
+        <v>0.08362656946985611</v>
       </c>
       <c r="AG104" t="n">
-        <v>1.827803693382371e-05</v>
+        <v>1.829854228552666e-05</v>
       </c>
       <c r="AH104" t="n">
-        <v>6.659048804634052e-06</v>
+        <v>6.654061182527613e-06</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.06220029693217122</v>
+        <v>0.06266521509026959</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1.234830608749865e-05</v>
+        <v>1.235133793151768e-05</v>
       </c>
       <c r="AK104" t="n">
-        <v>1.593842675794623e-05</v>
+        <v>1.596995252997046e-05</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.09152280129914651</v>
+        <v>0.09267598357303077</v>
       </c>
       <c r="AM104" t="n">
-        <v>9.678932619622892e-11</v>
+        <v>9.679454077713875e-11</v>
       </c>
       <c r="AN104" t="n">
-        <v>9.607607297905003e-09</v>
+        <v>9.607020156863702e-09</v>
       </c>
       <c r="AO104" t="n">
-        <v>0.1586909254259203</v>
+        <v>0.1586813292324536</v>
       </c>
     </row>
     <row r="105">
@@ -14119,128 +14119,128 @@
         <v>1.326928571428572</v>
       </c>
       <c r="D105" t="n">
-        <v>3.9811172887625</v>
+        <v>3.209459123788299</v>
       </c>
       <c r="E105" t="n">
-        <v>10174.00734874967</v>
+        <v>7329.689064278835</v>
       </c>
       <c r="F105" t="n">
-        <v>6595.505637111851</v>
+        <v>4227.4229247374</v>
       </c>
       <c r="G105" t="n">
-        <v>1659.131662339136</v>
+        <v>1337.274634911792</v>
       </c>
       <c r="H105" t="n">
-        <v>1283.962253680306</v>
+        <v>1022.131418884111</v>
       </c>
       <c r="I105" t="n">
-        <v>1473.331172405903</v>
+        <v>1224.173099305763</v>
       </c>
       <c r="J105" t="n">
         <v>60</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>[0.20481075 0.06080577 0.08968574 0.15821246]</t>
+          <t>[0.08297991 0.06129559 0.09085715 0.15821438]</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>0.6043180035305549</v>
+        <v>0.2232400799453833</v>
       </c>
       <c r="M105" t="n">
-        <v>18.14284479101671</v>
+        <v>13.91832761880322</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.002415119540459312</v>
+        <v>0.001860837703357133</v>
       </c>
       <c r="P105" t="n">
-        <v>0.2558401340959932</v>
+        <v>0.0905698939179588</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.6027627409236959</v>
+        <v>0.4660309406311286</v>
       </c>
       <c r="R105" t="n">
-        <v>15.73733437250585</v>
+        <v>11.98894703929115</v>
       </c>
       <c r="S105" t="n">
-        <v>88.93203482481094</v>
+        <v>125.5905841088128</v>
       </c>
       <c r="T105" t="n">
-        <v>2.68377561059216</v>
+        <v>0.6568789279908378</v>
       </c>
       <c r="U105" t="n">
-        <v>90.35842722843236</v>
+        <v>57.9156940689024</v>
       </c>
       <c r="V105" t="n">
-        <v>73.6838091513123</v>
+        <v>59.55456090521282</v>
       </c>
       <c r="W105" t="n">
-        <v>28.44248781088251</v>
+        <v>22.70695378550743</v>
       </c>
       <c r="X105" t="n">
-        <v>32.66315950428078</v>
+        <v>27.21420362845473</v>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>[5.12026864 0.91208657 1.79371484 9.49274777]</t>
+          <t>[2.07449764 0.91943378 1.8171429  9.49286263]</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>[np.float64(6.480328884759445e-05) np.float64(1.8475571877544477e-05)
- np.float64(1.2593127773227314e-05) np.float64(9.257064624605605e-11)]</t>
+          <t>[np.float64(0.0011696360653330273) np.float64(1.849909522444667e-05)
+ np.float64(1.2598395737834408e-05) np.float64(9.257765136251812e-11)]</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>[np.float64(0.008852988793635625) np.float64(6.741607117748234e-06)
- np.float64(1.602899902955654e-05) np.float64(9.582801334921891e-09)]</t>
+          <t>[np.float64(0.01240769313517865) np.float64(6.737444502638255e-06)
+ np.float64(1.6062564370155603e-05) np.float64(9.582910675696881e-09)]</t>
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>1.957184544182376e-05</v>
+        <v>1.957068198290931e-05</v>
       </c>
       <c r="AC105" t="n">
-        <v>249.892063969676</v>
+        <v>196.9990140443182</v>
       </c>
       <c r="AD105" t="n">
-        <v>6.480328884759445e-05</v>
+        <v>0.001169636065333027</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.008852988793635625</v>
+        <v>0.01240769313517865</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.2048107457517379</v>
+        <v>0.08297990548420975</v>
       </c>
       <c r="AG105" t="n">
-        <v>1.847557187754448e-05</v>
+        <v>1.849909522444667e-05</v>
       </c>
       <c r="AH105" t="n">
-        <v>6.741607117748234e-06</v>
+        <v>6.737444502638255e-06</v>
       </c>
       <c r="AI105" t="n">
-        <v>0.06080577109874293</v>
+        <v>0.06129558539180831</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1.259312777322731e-05</v>
+        <v>1.259839573783441e-05</v>
       </c>
       <c r="AK105" t="n">
-        <v>1.602899902955654e-05</v>
+        <v>1.60625643701556e-05</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.08968574193735826</v>
+        <v>0.09085714517881613</v>
       </c>
       <c r="AM105" t="n">
-        <v>9.257064624605605e-11</v>
+        <v>9.257765136251812e-11</v>
       </c>
       <c r="AN105" t="n">
-        <v>9.582801334921891e-09</v>
+        <v>9.582910675696881e-09</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.1582124628336995</v>
+        <v>0.158214377183205</v>
       </c>
     </row>
   </sheetData>
